--- a/data/Simulacao Cenarios.xlsx
+++ b/data/Simulacao Cenarios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcio Barros\Documents\GitHub\Hector\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
@@ -15,48 +10,16 @@
     <sheet name="Gabarito - Overworking" sheetId="2" r:id="rId1"/>
     <sheet name="Gabarito - Exhaustion" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gabarito - Exhaustion'!$S$2:$V$30</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Marcio Barros</author>
-  </authors>
-  <commentList>
-    <comment ref="P18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Marcio Barros:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-aparentemente, não está reduzindo a taxa de geração de erros das atividades seguintes.
-Se aqui for 1.5 o número de erros bate. Nem a taxa de produtividade nas outras atividades.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -195,8 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -215,17 +179,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -266,12 +232,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,6 +247,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,16 +614,16 @@
       <c r="E3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="F3" s="5">
-        <f>D3-C3</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F30" si="0">D3-C3</f>
         <v>1.5</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G9" si="1">E3</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f>B3</f>
         <v>Requisitos Inscrições</v>
       </c>
@@ -713,17 +681,17 @@
       <c r="E4">
         <v>13.1</v>
       </c>
-      <c r="F4" s="5">
-        <f>D4-C4</f>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
         <v>2.4999999999999996</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4</f>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
         <v>13.1</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="7" t="str">
-        <f t="shared" ref="I4:I30" si="0">B4</f>
+      <c r="I4" s="6" t="str">
+        <f t="shared" ref="I4:I30" si="2">B4</f>
         <v>Requisitos Turmas</v>
       </c>
       <c r="J4" s="1">
@@ -731,15 +699,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K23" si="1">J4+F4/$K$1</f>
+        <f t="shared" ref="K4:K23" si="3">J4+F4/$K$1</f>
         <v>2.7666666666666666</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L23" si="2">G4*$L$1</f>
+        <f t="shared" ref="L4:L23" si="4">G4*$L$1</f>
         <v>19.649999999999999</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M9" si="3">L4</f>
+        <f t="shared" ref="M4:M9" si="5">L4</f>
         <v>19.649999999999999</v>
       </c>
       <c r="O4" t="s">
@@ -755,15 +723,15 @@
         <v>19.649999999999999</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T30" si="4">P4-J4</f>
+        <f t="shared" ref="T4:T30" si="6">P4-J4</f>
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U30" si="5">Q4-K4</f>
+        <f t="shared" ref="U4:U30" si="7">Q4-K4</f>
         <v>-6.666666666666643E-2</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V30" si="6">R4-M4</f>
+        <f t="shared" ref="V4:V30" si="8">R4-M4</f>
         <v>0</v>
       </c>
     </row>
@@ -780,33 +748,33 @@
       <c r="E5">
         <v>6.39</v>
       </c>
-      <c r="F5" s="5">
-        <f>D5-C5</f>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>1.1000000000000005</v>
       </c>
-      <c r="G5" s="6">
-        <f>E5</f>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
         <v>6.39</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Requisitos Disciplinas</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J30" si="7">K4</f>
+        <f t="shared" ref="J5:J30" si="9">K4</f>
         <v>2.7666666666666666</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="O5" t="s">
@@ -822,15 +790,15 @@
         <v>9.58</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.666666666666643E-2</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -847,33 +815,33 @@
       <c r="E6">
         <v>7.35</v>
       </c>
-      <c r="F6" s="5">
-        <f>D6-C6</f>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
         <v>1.3999999999999995</v>
       </c>
-      <c r="G6" s="6">
-        <f>E6</f>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
         <v>7.35</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Requisitos Aluno</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4333333333333336</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.024999999999999</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.024999999999999</v>
       </c>
       <c r="O6" t="s">
@@ -889,15 +857,15 @@
         <v>11.02</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333333215E-2</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -914,33 +882,33 @@
       <c r="E7">
         <v>7.35</v>
       </c>
-      <c r="F7" s="5">
-        <f>D7-C7</f>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
         <v>1.3000000000000007</v>
       </c>
-      <c r="G7" s="6">
-        <f>E7</f>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
         <v>7.35</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Requisitos Áreas</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.4333333333333336</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.024999999999999</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.024999999999999</v>
       </c>
       <c r="O7" t="s">
@@ -956,15 +924,15 @@
         <v>11.02</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333333215E-2</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -981,33 +949,33 @@
       <c r="E8">
         <v>6.39</v>
       </c>
-      <c r="F8" s="5">
-        <f>D8-C8</f>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="G8" s="6">
-        <f>E8</f>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
         <v>6.39</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Requisitos Professores</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="O8" t="s">
@@ -1023,15 +991,15 @@
         <v>9.58</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -1048,33 +1016,33 @@
       <c r="E9">
         <v>5.75</v>
       </c>
-      <c r="F9" s="5">
-        <f>D9-C9</f>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
         <v>1.0999999999999996</v>
       </c>
-      <c r="G9" s="6">
-        <f>E9</f>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Requisitos Usuários</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.8333333333333339</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.625</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.625</v>
       </c>
       <c r="O9" t="s">
@@ -1090,15 +1058,15 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333334103E-2</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000007816E-3</v>
       </c>
     </row>
@@ -1115,29 +1083,29 @@
       <c r="E10">
         <v>19.57</v>
       </c>
-      <c r="F10" s="5">
-        <f>D10-C10</f>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="6">
-        <f>E10-E3</f>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G23" si="10">E10-E3</f>
         <v>10.94</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Inscrições</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8333333333333339</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1666666666666679</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.41</v>
       </c>
       <c r="M10" s="1">
@@ -1157,15 +1125,15 @@
         <v>29.36</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333334103E-2</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333331439E-2</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
@@ -1182,33 +1150,33 @@
       <c r="E11">
         <v>29.72</v>
       </c>
-      <c r="F11" s="5">
-        <f>D11-C11</f>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
       </c>
-      <c r="G11" s="6">
-        <f>E11-E4</f>
+      <c r="G11" s="5">
+        <f t="shared" si="10"/>
         <v>16.619999999999997</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Turmas</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.1666666666666679</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.233333333333336</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24.929999999999996</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" ref="M11:M23" si="8">L11+M4</f>
+        <f t="shared" ref="M11:M23" si="11">L11+M4</f>
         <v>44.58</v>
       </c>
       <c r="O11" t="s">
@@ -1224,15 +1192,15 @@
         <v>44.58</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3333333333331439E-2</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333336768E-2</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1249,33 +1217,33 @@
       <c r="E12">
         <v>14.5</v>
       </c>
-      <c r="F12" s="5">
-        <f>D12-C12</f>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G12" s="6">
-        <f>E12-E5</f>
+      <c r="G12" s="5">
+        <f t="shared" si="10"/>
         <v>8.11</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Disciplinas</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.233333333333336</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.233333333333336</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.164999999999999</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.75</v>
       </c>
       <c r="O12" t="s">
@@ -1291,15 +1259,15 @@
         <v>21.75</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333336768E-2</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333336768E-2</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1316,33 +1284,33 @@
       <c r="E13">
         <v>16.670000000000002</v>
       </c>
-      <c r="F13" s="5">
-        <f>D13-C13</f>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="G13" s="6">
-        <f>E13-E6</f>
+      <c r="G13" s="5">
+        <f t="shared" si="10"/>
         <v>9.3200000000000021</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Aluno</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.233333333333336</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.366666666666669</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.980000000000004</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25.005000000000003</v>
       </c>
       <c r="O13" t="s">
@@ -1358,15 +1326,15 @@
         <v>25.01</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333336768E-2</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.6666666666668206E-2</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
@@ -1383,33 +1351,33 @@
       <c r="E14">
         <v>16.670000000000002</v>
       </c>
-      <c r="F14" s="5">
-        <f>D14-C14</f>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="G14" s="6">
-        <f>E14-E7</f>
+      <c r="G14" s="5">
+        <f t="shared" si="10"/>
         <v>9.3200000000000021</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Áreas</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.366666666666669</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.500000000000002</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.980000000000004</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25.005000000000003</v>
       </c>
       <c r="O14" t="s">
@@ -1425,15 +1393,15 @@
         <v>25.01</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.6666666666668206E-2</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
@@ -1450,33 +1418,33 @@
       <c r="E15">
         <v>14.5</v>
       </c>
-      <c r="F15" s="5">
-        <f>D15-C15</f>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G15" s="6">
-        <f>E15-E8</f>
+      <c r="G15" s="5">
+        <f t="shared" si="10"/>
         <v>8.11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Professores</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.500000000000002</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.500000000000002</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.164999999999999</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.75</v>
       </c>
       <c r="O15" t="s">
@@ -1492,15 +1460,15 @@
         <v>21.75</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1517,33 +1485,33 @@
       <c r="E16">
         <v>13.05</v>
       </c>
-      <c r="F16" s="5">
-        <f>D16-C16</f>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
         <v>1.3000000000000007</v>
       </c>
-      <c r="G16" s="6">
-        <f>E16-E9</f>
+      <c r="G16" s="5">
+        <f t="shared" si="10"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Projeto Usuários</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.500000000000002</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.366666666666669</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.950000000000001</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19.575000000000003</v>
       </c>
       <c r="O16" t="s">
@@ -1559,15 +1527,15 @@
         <v>19.57</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333331439E-2</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.000000000002558E-3</v>
       </c>
     </row>
@@ -1584,33 +1552,33 @@
       <c r="E17">
         <v>64.8</v>
       </c>
-      <c r="F17" s="5">
-        <f>D17-C17</f>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="G17" s="6">
-        <f>E17-E10</f>
+      <c r="G17" s="5">
+        <f t="shared" si="10"/>
         <v>45.23</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Inscrições</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.366666666666669</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.966666666666669</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.844999999999999</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>97.2</v>
       </c>
       <c r="O17" t="s">
@@ -1626,15 +1594,15 @@
         <v>97.2</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3333333333331439E-2</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.6666666666669983E-2</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1651,33 +1619,33 @@
       <c r="E18">
         <v>98.4</v>
       </c>
-      <c r="F18" s="5">
-        <f>D18-C18</f>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
         <v>12.700000000000003</v>
       </c>
-      <c r="G18" s="6">
-        <f>E18-E11</f>
+      <c r="G18" s="5">
+        <f t="shared" si="10"/>
         <v>68.680000000000007</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Turmas</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.966666666666669</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29.433333333333337</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>103.02000000000001</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>147.60000000000002</v>
       </c>
       <c r="O18" t="s">
@@ -1693,15 +1661,15 @@
         <v>147.6</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.6666666666669983E-2</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333338544E-2</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1718,33 +1686,33 @@
       <c r="E19">
         <v>48</v>
       </c>
-      <c r="F19" s="5">
-        <f>D19-C19</f>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
         <v>6.1000000000000014</v>
       </c>
-      <c r="G19" s="6">
-        <f>E19-E12</f>
+      <c r="G19" s="5">
+        <f t="shared" si="10"/>
         <v>33.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Disciplinas</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29.433333333333337</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.500000000000007</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.25</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="O19" t="s">
@@ -1760,15 +1728,15 @@
         <v>72</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333338544E-2</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1785,33 +1753,33 @@
       <c r="E20">
         <v>55.2</v>
       </c>
-      <c r="F20" s="5">
-        <f>D20-C20</f>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
         <v>7.0999999999999943</v>
       </c>
-      <c r="G20" s="6">
-        <f>E20-E13</f>
+      <c r="G20" s="5">
+        <f t="shared" si="10"/>
         <v>38.53</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Aluno</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33.500000000000007</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38.233333333333334</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.795000000000002</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>82.800000000000011</v>
       </c>
       <c r="O20" t="s">
@@ -1827,15 +1795,15 @@
         <v>82.8</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333331439E-2</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1852,33 +1820,33 @@
       <c r="E21">
         <v>55.2</v>
       </c>
-      <c r="F21" s="5">
-        <f>D21-C21</f>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
         <v>7.1000000000000085</v>
       </c>
-      <c r="G21" s="6">
-        <f>E21-E14</f>
+      <c r="G21" s="5">
+        <f t="shared" si="10"/>
         <v>38.53</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Áreas</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38.233333333333334</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.966666666666676</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.795000000000002</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>82.800000000000011</v>
       </c>
       <c r="O21" t="s">
@@ -1894,15 +1862,15 @@
         <v>82.8</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333331439E-2</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333324333E-2</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1919,33 +1887,33 @@
       <c r="E22">
         <v>48</v>
       </c>
-      <c r="F22" s="5">
-        <f>D22-C22</f>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
         <v>6.1999999999999886</v>
       </c>
-      <c r="G22" s="6">
-        <f>E22-E15</f>
+      <c r="G22" s="5">
+        <f t="shared" si="10"/>
         <v>33.5</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Professores</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42.966666666666676</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47.1</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.25</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="O22" t="s">
@@ -1961,15 +1929,15 @@
         <v>72</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3333333333324333E-2</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1986,33 +1954,33 @@
       <c r="E23">
         <v>43.2</v>
       </c>
-      <c r="F23" s="5">
-        <f>D23-C23</f>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
         <v>5.6000000000000085</v>
       </c>
-      <c r="G23" s="6">
-        <f>E23-E16</f>
+      <c r="G23" s="5">
+        <f t="shared" si="10"/>
         <v>30.150000000000002</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Codificacao Usuários</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47.1</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50.833333333333343</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.225000000000001</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>64.800000000000011</v>
       </c>
       <c r="O23" t="s">
@@ -2028,15 +1996,15 @@
         <v>64.8</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333345649E-2</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2053,20 +2021,20 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="5">
-        <f>D24-C24</f>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
         <v>8.3999999999999915</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Inscrições</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50.833333333333343</v>
       </c>
       <c r="K24" s="1">
@@ -2092,15 +2060,15 @@
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333345649E-2</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.7333333333339453E-2</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2117,24 +2085,24 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
-        <f>D25-C25</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>12.800000000000011</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Turmas</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59.257333333333342</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K30" si="9">J25+M18*0.13/$K$1</f>
+        <f t="shared" ref="K25:K30" si="12">J25+M18*0.13/$K$1</f>
         <v>72.049333333333351</v>
       </c>
       <c r="L25" s="1">
@@ -2156,15 +2124,15 @@
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.7333333333339453E-2</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.9333333333350993E-2</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2181,24 +2149,24 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="5">
-        <f>D26-C26</f>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
         <v>6.1999999999999886</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Disciplinas</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72.049333333333351</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>78.289333333333346</v>
       </c>
       <c r="L26" s="1">
@@ -2220,15 +2188,15 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.9333333333350993E-2</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0666666666651281E-2</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2245,24 +2213,24 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="5">
-        <f>D27-C27</f>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Aluno</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.289333333333346</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>85.465333333333348</v>
       </c>
       <c r="L27" s="1">
@@ -2284,15 +2252,15 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0666666666651281E-2</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.5333333333342125E-2</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2309,24 +2277,24 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="5">
-        <f>D28-C28</f>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Áreas</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85.465333333333348</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>92.64133333333335</v>
       </c>
       <c r="L28" s="1">
@@ -2348,15 +2316,15 @@
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.5333333333342125E-2</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.1333333333355426E-2</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2373,24 +2341,24 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="5">
-        <f>D29-C29</f>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Professores</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92.64133333333335</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>98.881333333333345</v>
       </c>
       <c r="L29" s="1">
@@ -2412,15 +2380,15 @@
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.1333333333355426E-2</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8666666666661058E-2</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2437,24 +2405,24 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="5">
-        <f>D30-C30</f>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Testes Usuários</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98.881333333333345</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>104.49733333333334</v>
       </c>
       <c r="L30" s="1">
@@ -2476,15 +2444,15 @@
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8666666666661058E-2</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6666666666557148E-3</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2523,7 +2491,7 @@
       </c>
     </row>
     <row r="35" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I35" s="7" t="str">
+      <c r="I35" s="6" t="str">
         <f>B3</f>
         <v>Requisitos Inscrições</v>
       </c>
@@ -2569,8 +2537,8 @@
       </c>
     </row>
     <row r="36" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I36" s="7" t="str">
-        <f t="shared" ref="I36:I62" si="10">B4</f>
+      <c r="I36" s="6" t="str">
+        <f t="shared" ref="I36:I62" si="13">B4</f>
         <v>Requisitos Turmas</v>
       </c>
       <c r="J36" s="1">
@@ -2578,15 +2546,15 @@
         <v>1.6</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" ref="K36:K62" si="11">J36+F4/$K$33</f>
+        <f t="shared" ref="K36:K55" si="14">J36+F4/$K$33</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" ref="L36:L55" si="12">G4*$L$33</f>
+        <f t="shared" ref="L36:L55" si="15">G4*$L$33</f>
         <v>11.79</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" ref="M36:M41" si="13">L36</f>
+        <f t="shared" ref="M36:M41" si="16">L36</f>
         <v>11.79</v>
       </c>
       <c r="O36" t="s">
@@ -2602,37 +2570,37 @@
         <v>11.79</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:T62" si="14">P36-J36</f>
+        <f t="shared" ref="T36:T62" si="17">P36-J36</f>
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" ref="U36:U62" si="15">Q36-K36</f>
+        <f t="shared" ref="U36:U62" si="18">Q36-K36</f>
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36:V62" si="16">R36-M36</f>
+        <f t="shared" ref="V36:V62" si="19">R36-M36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I37" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I37" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Requisitos Disciplinas</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37:J62" si="17">K36</f>
+        <f t="shared" ref="J37:J62" si="20">K36</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.2</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.7509999999999994</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7509999999999994</v>
       </c>
       <c r="O37" t="s">
@@ -2648,37 +2616,37 @@
         <v>5.75</v>
       </c>
       <c r="T37" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="19"/>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I38" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Requisitos Aluno</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="20"/>
+        <v>5.2</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="L38" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="M38" s="1">
         <f t="shared" si="16"/>
-        <v>-9.9999999999944578E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I38" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Requisitos Aluno</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="17"/>
-        <v>5.2</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="11"/>
-        <v>6.6</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="12"/>
-        <v>6.6150000000000002</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="13"/>
         <v>6.6150000000000002</v>
       </c>
       <c r="O38" t="s">
@@ -2694,37 +2662,37 @@
         <v>6.61</v>
       </c>
       <c r="T38" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="19"/>
+        <v>-4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I39" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Requisitos Áreas</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="20"/>
+        <v>6.6</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="M39" s="1">
         <f t="shared" si="16"/>
-        <v>-4.9999999999998934E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I39" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Requisitos Áreas</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="17"/>
-        <v>6.6</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="11"/>
-        <v>7.9</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="12"/>
-        <v>6.6150000000000002</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="13"/>
         <v>6.6150000000000002</v>
       </c>
       <c r="O39" t="s">
@@ -2740,37 +2708,37 @@
         <v>6.61</v>
       </c>
       <c r="T39" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="19"/>
+        <v>-4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I40" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Requisitos Professores</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="20"/>
+        <v>7.9</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="L40" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
+        <v>5.7509999999999994</v>
+      </c>
+      <c r="M40" s="1">
         <f t="shared" si="16"/>
-        <v>-4.9999999999998934E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I40" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Requisitos Professores</v>
-      </c>
-      <c r="J40" s="1">
-        <f t="shared" si="17"/>
-        <v>7.9</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="11"/>
-        <v>9.1</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="12"/>
-        <v>5.7509999999999994</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="13"/>
         <v>5.7509999999999994</v>
       </c>
       <c r="O40" t="s">
@@ -2786,37 +2754,37 @@
         <v>5.75</v>
       </c>
       <c r="T40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="19"/>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I41" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Requisitos Usuários</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="20"/>
+        <v>9.1</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L41" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="1">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="M41" s="1">
         <f t="shared" si="16"/>
-        <v>-9.9999999999944578E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I41" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Requisitos Usuários</v>
-      </c>
-      <c r="J41" s="1">
-        <f t="shared" si="17"/>
-        <v>9.1</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="11"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="12"/>
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="13"/>
         <v>5.1749999999999998</v>
       </c>
       <c r="O41" t="s">
@@ -2832,33 +2800,33 @@
         <v>5.18</v>
       </c>
       <c r="T41" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="19"/>
+        <v>4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I42" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Inscrições</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="20"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L42" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <f t="shared" si="16"/>
-        <v>4.9999999999998934E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I42" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Inscrições</v>
-      </c>
-      <c r="J42" s="1">
-        <f t="shared" si="17"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="11"/>
-        <v>12.2</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="12"/>
         <v>9.8460000000000001</v>
       </c>
       <c r="M42" s="1">
@@ -2878,37 +2846,37 @@
         <v>17.62</v>
       </c>
       <c r="T42" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="19"/>
+        <v>7.0000000000014495E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Turmas</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="20"/>
+        <v>12.2</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="L43" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="1">
-        <f t="shared" si="16"/>
-        <v>7.0000000000014495E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I43" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Turmas</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="17"/>
-        <v>12.2</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="11"/>
-        <v>15.3</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="12"/>
         <v>14.957999999999998</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" ref="M43:M55" si="18">L43+M36</f>
+        <f t="shared" ref="M43:M55" si="21">L43+M36</f>
         <v>26.747999999999998</v>
       </c>
       <c r="O43" t="s">
@@ -2924,37 +2892,37 @@
         <v>26.75</v>
       </c>
       <c r="T43" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="19"/>
+        <v>2.0000000000024443E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Disciplinas</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="20"/>
+        <v>15.3</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="L44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="1">
-        <f t="shared" si="16"/>
-        <v>2.0000000000024443E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I44" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Disciplinas</v>
-      </c>
-      <c r="J44" s="1">
-        <f t="shared" si="17"/>
-        <v>15.3</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="11"/>
-        <v>16.8</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="12"/>
         <v>7.2989999999999995</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13.049999999999999</v>
       </c>
       <c r="O44" t="s">
@@ -2970,37 +2938,37 @@
         <v>13.05</v>
       </c>
       <c r="T44" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Aluno</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="20"/>
+        <v>16.8</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="L45" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I45" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Aluno</v>
-      </c>
-      <c r="J45" s="1">
-        <f t="shared" si="17"/>
-        <v>16.8</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="11"/>
-        <v>18.5</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="12"/>
         <v>8.3880000000000017</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15.003000000000002</v>
       </c>
       <c r="O45" t="s">
@@ -3016,37 +2984,37 @@
         <v>15.01</v>
       </c>
       <c r="T45" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="19"/>
+        <v>6.9999999999978968E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Áreas</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="20"/>
+        <v>18.5</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="L46" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="1">
-        <f t="shared" si="16"/>
-        <v>6.9999999999978968E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I46" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Áreas</v>
-      </c>
-      <c r="J46" s="1">
-        <f t="shared" si="17"/>
-        <v>18.5</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="11"/>
-        <v>20.2</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="12"/>
         <v>8.3880000000000017</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15.003000000000002</v>
       </c>
       <c r="O46" t="s">
@@ -3062,37 +3030,37 @@
         <v>15.01</v>
       </c>
       <c r="T46" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="19"/>
+        <v>6.9999999999978968E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Professores</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="20"/>
+        <v>20.2</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="L47" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="1">
-        <f t="shared" si="16"/>
-        <v>6.9999999999978968E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I47" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Professores</v>
-      </c>
-      <c r="J47" s="1">
-        <f t="shared" si="17"/>
-        <v>20.2</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="11"/>
-        <v>21.7</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="12"/>
         <v>7.2989999999999995</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13.049999999999999</v>
       </c>
       <c r="O47" t="s">
@@ -3108,37 +3076,37 @@
         <v>13.05</v>
       </c>
       <c r="T47" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Projeto Usuários</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="20"/>
+        <v>21.7</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="1">
+        <v>23</v>
+      </c>
+      <c r="L48" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I48" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Projeto Usuários</v>
-      </c>
-      <c r="J48" s="1">
-        <f t="shared" si="17"/>
-        <v>21.7</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="12"/>
         <v>6.5700000000000012</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11.745000000000001</v>
       </c>
       <c r="O48" t="s">
@@ -3154,37 +3122,37 @@
         <v>11.74</v>
       </c>
       <c r="T48" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="19"/>
+        <v>-5.0000000000007816E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Inscrições</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="L49" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="1">
-        <f t="shared" si="16"/>
-        <v>-5.0000000000007816E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I49" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Inscrições</v>
-      </c>
-      <c r="J49" s="1">
-        <f t="shared" si="17"/>
-        <v>23</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="11"/>
-        <v>31.4</v>
-      </c>
-      <c r="L49" s="1">
-        <f t="shared" si="12"/>
         <v>40.707000000000001</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>58.32</v>
       </c>
       <c r="O49" t="s">
@@ -3200,37 +3168,37 @@
         <v>58.32</v>
       </c>
       <c r="T49" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Turmas</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="20"/>
+        <v>31.4</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="L50" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I50" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Turmas</v>
-      </c>
-      <c r="J50" s="1">
-        <f t="shared" si="17"/>
-        <v>31.4</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="11"/>
-        <v>44.1</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" si="12"/>
         <v>61.812000000000005</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>88.56</v>
       </c>
       <c r="O50" t="s">
@@ -3246,37 +3214,37 @@
         <v>88.56</v>
       </c>
       <c r="T50" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Disciplinas</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="20"/>
+        <v>44.1</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="L51" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I51" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Disciplinas</v>
-      </c>
-      <c r="J51" s="1">
-        <f t="shared" si="17"/>
-        <v>44.1</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="11"/>
-        <v>50.2</v>
-      </c>
-      <c r="L51" s="1">
-        <f t="shared" si="12"/>
         <v>30.150000000000002</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>43.2</v>
       </c>
       <c r="O51" t="s">
@@ -3292,37 +3260,37 @@
         <v>43.2</v>
       </c>
       <c r="T51" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Aluno</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="20"/>
+        <v>50.2</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="L52" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I52" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Aluno</v>
-      </c>
-      <c r="J52" s="1">
-        <f t="shared" si="17"/>
-        <v>50.2</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="11"/>
-        <v>57.3</v>
-      </c>
-      <c r="L52" s="1">
-        <f t="shared" si="12"/>
         <v>34.677</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>49.68</v>
       </c>
       <c r="O52" t="s">
@@ -3338,37 +3306,37 @@
         <v>49.68</v>
       </c>
       <c r="T52" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Áreas</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="20"/>
+        <v>57.3</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="L53" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I53" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Áreas</v>
-      </c>
-      <c r="J53" s="1">
-        <f t="shared" si="17"/>
-        <v>57.3</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="11"/>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="L53" s="1">
-        <f t="shared" si="12"/>
         <v>34.677</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>49.68</v>
       </c>
       <c r="O53" t="s">
@@ -3384,37 +3352,37 @@
         <v>49.68</v>
       </c>
       <c r="T53" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Professores</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="20"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I54" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Professores</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" si="17"/>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="11"/>
-        <v>70.599999999999994</v>
-      </c>
-      <c r="L54" s="1">
-        <f t="shared" si="12"/>
         <v>30.150000000000002</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>43.2</v>
       </c>
       <c r="O54" t="s">
@@ -3430,37 +3398,37 @@
         <v>43.2</v>
       </c>
       <c r="T54" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>Codificacao Usuários</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="20"/>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I55" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Codificacao Usuários</v>
-      </c>
-      <c r="J55" s="1">
-        <f t="shared" si="17"/>
-        <v>70.599999999999994</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="11"/>
-        <v>76.2</v>
-      </c>
-      <c r="L55" s="1">
-        <f t="shared" si="12"/>
         <v>27.135000000000002</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>38.880000000000003</v>
       </c>
       <c r="O55" t="s">
@@ -3476,25 +3444,25 @@
         <v>38.880000000000003</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I56" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Inscrições</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>76.2</v>
       </c>
       <c r="K56" s="1">
@@ -3520,29 +3488,29 @@
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.839999999999975E-2</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I57" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Turmas</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>83.781599999999997</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ref="K57:K62" si="19">J57+M50*0.13/$K$33</f>
+        <f t="shared" ref="K57:K62" si="22">J57+M50*0.13/$K$33</f>
         <v>95.294399999999996</v>
       </c>
       <c r="L57" s="1">
@@ -3564,29 +3532,29 @@
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.839999999999975E-2</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.6000000000011596E-3</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I58" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Disciplinas</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>95.294399999999996</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>100.9104</v>
       </c>
       <c r="L58" s="1">
@@ -3608,29 +3576,29 @@
         <v>0</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.6000000000011596E-3</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0399999999989973E-2</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I59" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Aluno</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>100.9104</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>107.36879999999999</v>
       </c>
       <c r="L59" s="1">
@@ -3652,29 +3620,29 @@
         <v>0</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.0399999999989973E-2</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.1200000000012551E-2</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I60" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Áreas</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>107.36879999999999</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>113.82719999999999</v>
       </c>
       <c r="L60" s="1">
@@ -3696,29 +3664,29 @@
         <v>0</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.1200000000012551E-2</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.7199999999993452E-2</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I61" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Professores</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>113.82719999999999</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>119.44319999999999</v>
       </c>
       <c r="L61" s="1">
@@ -3740,29 +3708,29 @@
         <v>0</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.7199999999993452E-2</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-4.3199999999984584E-2</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I62" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>Testes Usuários</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>119.44319999999999</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>124.49759999999999</v>
       </c>
       <c r="L62" s="1">
@@ -3784,15 +3752,15 @@
         <v>0</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-4.3199999999984584E-2</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.4000000000086175E-3</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3806,11 +3774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3859,7 +3827,7 @@
       <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="3"/>
@@ -3898,16 +3866,16 @@
       <c r="E3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="F3" s="5">
-        <f>D3-C3</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F30" si="0">D3-C3</f>
         <v>1.5</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G9" si="1">E3</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f>B3</f>
         <v>Requisitos Inscrições</v>
       </c>
@@ -3922,15 +3890,15 @@
       <c r="L3" s="1">
         <v>1.5</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="13">
         <f>(K3-J3)*2.5</f>
         <v>2.5</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>2.5</v>
       </c>
       <c r="O3" s="1">
-        <f>G3*P3</f>
+        <f t="shared" ref="O3:O23" si="2">G3*P3</f>
         <v>12.945</v>
       </c>
       <c r="P3" s="1">
@@ -3940,24 +3908,24 @@
         <f>O3</f>
         <v>12.945</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="1">
         <v>0.1</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="1">
         <v>12.94</v>
       </c>
       <c r="X3" s="1">
-        <f>T3-J3</f>
+        <f t="shared" ref="X3:X30" si="3">T3-J3</f>
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <f>U3-K3</f>
+        <f t="shared" ref="Y3:Y30" si="4">U3-K3</f>
         <v>0</v>
       </c>
       <c r="Z3" s="1">
@@ -3978,17 +3946,17 @@
       <c r="E4">
         <v>13.1</v>
       </c>
-      <c r="F4" s="5">
-        <f>D4-C4</f>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
         <v>2.4999999999999996</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4</f>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
         <v>13.1</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="7" t="str">
-        <f t="shared" ref="I4:I30" si="0">B4</f>
+      <c r="I4" s="6" t="str">
+        <f t="shared" ref="I4:I30" si="5">B4</f>
         <v>Requisitos Turmas</v>
       </c>
       <c r="J4" s="1">
@@ -4002,47 +3970,47 @@
       <c r="L4" s="1">
         <v>1.5</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="13">
         <f>M3+(K4-J4)*2.5</f>
         <v>6.7499999999999991</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>6.75</v>
       </c>
       <c r="O4" s="1">
-        <f>G4*P4</f>
+        <f t="shared" si="2"/>
         <v>19.649999999999999</v>
       </c>
       <c r="P4" s="1">
         <v>1.5</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q9" si="1">O4</f>
+        <f t="shared" ref="Q4:Q9" si="6">O4</f>
         <v>19.649999999999999</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>2.7</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <v>19.649999999999999</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10">
-        <f>T4-J4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
-        <f>U4-K4</f>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" si="4"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="Z4" s="10">
-        <f t="shared" ref="Z4:Z30" si="2">V4-Q4</f>
+      <c r="Z4" s="9">
+        <f t="shared" ref="Z4:Z30" si="7">V4-Q4</f>
         <v>0</v>
       </c>
     </row>
@@ -4059,71 +4027,71 @@
       <c r="E5">
         <v>6.39</v>
       </c>
-      <c r="F5" s="5">
-        <f>D5-C5</f>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>1.1000000000000005</v>
       </c>
-      <c r="G5" s="6">
-        <f>E5</f>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
         <v>6.39</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Requisitos Disciplinas</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J30" si="3">K4</f>
+        <f t="shared" ref="J5:J30" si="8">K4</f>
         <v>2.8</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K23" si="4">J5+ROUND(F5/L5,1)</f>
+        <f t="shared" ref="K5:K23" si="9">J5+ROUND(F5/L5,1)</f>
         <v>3.5</v>
       </c>
       <c r="L5" s="1">
         <v>1.5</v>
       </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5:M28" si="5">M4+(K5-J5)*2.5</f>
+      <c r="M5" s="13">
+        <f t="shared" ref="M5:M28" si="10">M4+(K5-J5)*2.5</f>
         <v>8.5</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>9</v>
       </c>
       <c r="O5" s="1">
-        <f>G5*P5</f>
+        <f t="shared" si="2"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="P5" s="1">
         <v>1.5</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.5849999999999991</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <v>2.7</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>3.5</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>9.58</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10">
-        <f>T5-J5</f>
+      <c r="W5" s="8"/>
+      <c r="X5" s="9">
+        <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="Y5" s="10">
-        <f>U5-K5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10">
-        <f t="shared" si="2"/>
+      <c r="Y5" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="7"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4140,71 +4108,71 @@
       <c r="E6">
         <v>7.35</v>
       </c>
-      <c r="F6" s="5">
-        <f>D6-C6</f>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
         <v>1.3999999999999995</v>
       </c>
-      <c r="G6" s="6">
-        <f>E6</f>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
         <v>7.35</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Requisitos Aluno</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="L6" s="1">
         <v>1.5</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" si="5"/>
+      <c r="M6" s="13">
+        <f t="shared" si="10"/>
         <v>10.75</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>11.5</v>
       </c>
       <c r="O6" s="1">
-        <f>G6*P6</f>
+        <f t="shared" si="2"/>
         <v>11.024999999999999</v>
       </c>
       <c r="P6" s="1">
         <v>1.5</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11.024999999999999</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>3.5</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>11.02</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10">
-        <f>T6-J6</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
-        <f>U6-K6</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="10">
-        <f t="shared" si="2"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="7"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4221,71 +4189,71 @@
       <c r="E7">
         <v>7.35</v>
       </c>
-      <c r="F7" s="5">
-        <f>D7-C7</f>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
         <v>1.3000000000000007</v>
       </c>
-      <c r="G7" s="6">
-        <f>E7</f>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
         <v>7.35</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Requisitos Áreas</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="L7" s="1">
         <v>1.5</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" si="5"/>
+      <c r="M7" s="13">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>14</v>
       </c>
       <c r="O7" s="1">
-        <f>G7*P7</f>
+        <f t="shared" si="2"/>
         <v>11.024999999999999</v>
       </c>
       <c r="P7" s="1">
         <v>1.5</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11.024999999999999</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>5.3</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>11.02</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="10">
-        <f>T7-J7</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10">
-        <f>U7-K7</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10">
-        <f t="shared" si="2"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="7"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4302,71 +4270,71 @@
       <c r="E8">
         <v>6.39</v>
       </c>
-      <c r="F8" s="5">
-        <f>D8-C8</f>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="G8" s="6">
-        <f>E8</f>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
         <v>6.39</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Requisitos Professores</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="L8" s="1">
         <v>1.5</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="5"/>
+      <c r="M8" s="13">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>16.25</v>
       </c>
       <c r="O8" s="1">
-        <f>G8*P8</f>
+        <f t="shared" si="2"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="P8" s="1">
         <v>1.5</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.5849999999999991</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>5.3</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>6.1</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>9.58</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="10">
-        <f>T8-J8</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
-        <f>U8-K8</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10">
-        <f t="shared" si="2"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="7"/>
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4383,71 +4351,71 @@
       <c r="E9">
         <v>5.75</v>
       </c>
-      <c r="F9" s="5">
-        <f>D9-C9</f>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
         <v>1.0999999999999996</v>
       </c>
-      <c r="G9" s="6">
-        <f>E9</f>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Requisitos Usuários</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="L9" s="1">
         <v>1.5</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="5"/>
+      <c r="M9" s="13">
+        <f t="shared" si="10"/>
         <v>16.75</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>18.25</v>
       </c>
       <c r="O9" s="1">
-        <f>G9*P9</f>
+        <f t="shared" si="2"/>
         <v>8.625</v>
       </c>
       <c r="P9" s="1">
         <v>1.5</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.625</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="S9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <v>6.1</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>6.8</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>8.6300000000000008</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="10">
-        <f>T9-J9</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10">
-        <f>U9-K9</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
-        <f t="shared" si="2"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
     </row>
@@ -4464,39 +4432,39 @@
       <c r="E10">
         <v>19.57</v>
       </c>
-      <c r="F10" s="5">
-        <f>D10-C10</f>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="6">
-        <f>E10-E3</f>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G23" si="11">E10-E3</f>
         <v>10.94</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Inscrições</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.1000000000000014</v>
       </c>
       <c r="L10" s="1">
         <v>1.5</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="5"/>
+      <c r="M10" s="13">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>22</v>
       </c>
       <c r="O10" s="1">
-        <f>G10*P10</f>
+        <f t="shared" si="2"/>
         <v>16.41</v>
       </c>
       <c r="P10" s="1">
@@ -4506,29 +4474,29 @@
         <f>O10+Q3</f>
         <v>29.355</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <v>6.8</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>29.36</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="10">
-        <f>T10-J10</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10">
-        <f>U10-K10</f>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <f t="shared" si="4"/>
         <v>9.9999999999997868E-2</v>
       </c>
-      <c r="Z10" s="10">
-        <f t="shared" si="2"/>
+      <c r="Z10" s="9">
+        <f t="shared" si="7"/>
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4545,71 +4513,71 @@
       <c r="E11">
         <v>29.72</v>
       </c>
-      <c r="F11" s="5">
-        <f>D11-C11</f>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
       </c>
-      <c r="G11" s="6">
-        <f>E11-E4</f>
+      <c r="G11" s="5">
+        <f t="shared" si="11"/>
         <v>16.619999999999997</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Turmas</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8.1000000000000014</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.200000000000001</v>
       </c>
       <c r="L11" s="1">
         <v>1.5</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" si="5"/>
+      <c r="M11" s="13">
+        <f t="shared" si="10"/>
         <v>25.25</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>27.25</v>
       </c>
       <c r="O11" s="1">
-        <f>G11*P11</f>
+        <f t="shared" si="2"/>
         <v>24.929999999999996</v>
       </c>
       <c r="P11" s="1">
         <v>1.5</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q23" si="6">O11+Q4</f>
+        <f t="shared" ref="Q11:Q23" si="12">O11+Q4</f>
         <v>44.58</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="9">
         <v>44.58</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="10">
-        <f>T11-J11</f>
+      <c r="W11" s="8"/>
+      <c r="X11" s="9">
+        <f t="shared" si="3"/>
         <v>9.9999999999997868E-2</v>
       </c>
-      <c r="Y11" s="10">
-        <f>U11-K11</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <f t="shared" si="2"/>
+      <c r="Y11" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4626,71 +4594,71 @@
       <c r="E12">
         <v>14.5</v>
       </c>
-      <c r="F12" s="5">
-        <f>D12-C12</f>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G12" s="6">
-        <f>E12-E5</f>
+      <c r="G12" s="5">
+        <f t="shared" si="11"/>
         <v>8.11</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Disciplinas</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10.200000000000001</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.200000000000001</v>
       </c>
       <c r="L12" s="1">
         <v>1.5</v>
       </c>
-      <c r="M12" s="4">
-        <f t="shared" si="5"/>
+      <c r="M12" s="13">
+        <f t="shared" si="10"/>
         <v>27.75</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>30</v>
       </c>
       <c r="O12" s="1">
-        <f>G12*P12</f>
+        <f t="shared" si="2"/>
         <v>12.164999999999999</v>
       </c>
       <c r="P12" s="1">
         <v>1.5</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.75</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="9">
         <v>11.2</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="9">
         <v>21.75</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="10">
-        <f>T12-J12</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10">
-        <f>U12-K12</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="10">
-        <f t="shared" si="2"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,71 +4675,71 @@
       <c r="E13">
         <v>16.670000000000002</v>
       </c>
-      <c r="F13" s="5">
-        <f>D13-C13</f>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="G13" s="6">
-        <f>E13-E6</f>
+      <c r="G13" s="5">
+        <f t="shared" si="11"/>
         <v>9.3200000000000021</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Aluno</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11.200000000000001</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.3</v>
       </c>
       <c r="L13" s="1">
         <v>1.5</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="5"/>
+      <c r="M13" s="13">
+        <f t="shared" si="10"/>
         <v>30.5</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>33</v>
       </c>
       <c r="O13" s="1">
-        <f>G13*P13</f>
+        <f t="shared" si="2"/>
         <v>13.980000000000004</v>
       </c>
       <c r="P13" s="1">
         <v>1.5</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.005000000000003</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <v>11.2</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="9">
         <v>12.3</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="9">
         <v>25.01</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="10">
-        <f>T13-J13</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="10">
-        <f>U13-K13</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="10">
-        <f t="shared" si="2"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="7"/>
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4788,71 +4756,71 @@
       <c r="E14">
         <v>16.670000000000002</v>
       </c>
-      <c r="F14" s="5">
-        <f>D14-C14</f>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="G14" s="6">
-        <f>E14-E7</f>
+      <c r="G14" s="5">
+        <f t="shared" si="11"/>
         <v>9.3200000000000021</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Áreas</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12.3</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.4</v>
       </c>
       <c r="L14" s="1">
         <v>1.5</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" si="5"/>
+      <c r="M14" s="13">
+        <f t="shared" si="10"/>
         <v>33.25</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>36.25</v>
       </c>
       <c r="O14" s="1">
-        <f>G14*P14</f>
+        <f t="shared" si="2"/>
         <v>13.980000000000004</v>
       </c>
       <c r="P14" s="1">
         <v>1.5</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.005000000000003</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <v>12.3</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="9">
         <v>13.5</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="9">
         <v>25.01</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="10">
-        <f>T14-J14</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="10">
-        <f>U14-K14</f>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <f t="shared" si="4"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="Z14" s="10">
-        <f t="shared" si="2"/>
+      <c r="Z14" s="9">
+        <f t="shared" si="7"/>
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
@@ -4869,71 +4837,71 @@
       <c r="E15">
         <v>14.5</v>
       </c>
-      <c r="F15" s="5">
-        <f>D15-C15</f>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G15" s="6">
-        <f>E15-E8</f>
+      <c r="G15" s="5">
+        <f t="shared" si="11"/>
         <v>8.11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Professores</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13.4</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.4</v>
       </c>
       <c r="L15" s="1">
         <v>1.5</v>
       </c>
-      <c r="M15" s="4">
-        <f t="shared" si="5"/>
+      <c r="M15" s="13">
+        <f t="shared" si="10"/>
         <v>35.75</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>39</v>
       </c>
       <c r="O15" s="1">
-        <f>G15*P15</f>
+        <f t="shared" si="2"/>
         <v>12.164999999999999</v>
       </c>
       <c r="P15" s="1">
         <v>1.5</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.75</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <v>13.5</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <v>14.5</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="9">
         <v>21.75</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="10">
-        <f>T15-J15</f>
+      <c r="W15" s="8"/>
+      <c r="X15" s="9">
+        <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="Y15" s="10">
-        <f>U15-K15</f>
+      <c r="Y15" s="9">
+        <f t="shared" si="4"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="Z15" s="10">
-        <f t="shared" si="2"/>
+      <c r="Z15" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4950,71 +4918,71 @@
       <c r="E16">
         <v>13.05</v>
       </c>
-      <c r="F16" s="5">
-        <f>D16-C16</f>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
         <v>1.3000000000000007</v>
       </c>
-      <c r="G16" s="6">
-        <f>E16-E9</f>
+      <c r="G16" s="5">
+        <f t="shared" si="11"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Projeto Usuários</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>14.4</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.3</v>
       </c>
       <c r="L16" s="1">
         <v>1.5</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="5"/>
+      <c r="M16" s="13">
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>41.5</v>
       </c>
       <c r="O16" s="1">
-        <f>G16*P16</f>
+        <f t="shared" si="2"/>
         <v>10.950000000000001</v>
       </c>
       <c r="P16" s="1">
         <v>1.5</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19.575000000000003</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="9">
         <v>14.5</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="9">
         <v>15.4</v>
       </c>
-      <c r="V16" s="10">
+      <c r="V16" s="9">
         <v>19.57</v>
       </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="10">
-        <f>T16-J16</f>
+      <c r="W16" s="8"/>
+      <c r="X16" s="9">
+        <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="Y16" s="10">
-        <f>U16-K16</f>
+      <c r="Y16" s="9">
+        <f t="shared" si="4"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="Z16" s="10">
-        <f t="shared" si="2"/>
+      <c r="Z16" s="9">
+        <f t="shared" si="7"/>
         <v>-5.000000000002558E-3</v>
       </c>
     </row>
@@ -5031,75 +4999,74 @@
       <c r="E17">
         <v>64.8</v>
       </c>
-      <c r="F17" s="5">
-        <f>D17-C17</f>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="G17" s="6">
-        <f>E17-E10</f>
+      <c r="G17" s="5">
+        <f t="shared" si="11"/>
         <v>45.23</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Inscrições</v>
       </c>
       <c r="J17" s="1">
+        <f t="shared" si="8"/>
+        <v>15.3</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="9"/>
+        <v>22.1</v>
+      </c>
+      <c r="L17" s="14">
+        <f>(3.3*1.5+3.5*1)/6.8</f>
+        <v>1.2426470588235294</v>
+      </c>
+      <c r="M17" s="13">
+        <f>M16+4.7*2.5-(K17-J17-4.7)*2.5</f>
+        <v>44.5</v>
+      </c>
+      <c r="N17" s="10">
+        <v>41.5</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>53.876911764705881</v>
+      </c>
+      <c r="P17" s="14">
+        <f>(3.3*1.5+3.5*0.9)/6.8</f>
+        <v>1.1911764705882353</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="12"/>
+        <v>83.231911764705885</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="U17" s="9">
+        <v>22.1</v>
+      </c>
+      <c r="V17" s="9">
+        <v>86.01</v>
+      </c>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9">
         <f t="shared" si="3"/>
-        <v>15.3</v>
-      </c>
-      <c r="K17" s="1">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="Y17" s="9">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="L17" s="12">
-        <f>(3.4*1.5+3.4*1)/6.8</f>
-        <v>1.25</v>
-      </c>
-      <c r="M17" s="4">
-        <f>M16+4.7*2.5-(K17-J17-4.7)*2.5</f>
-        <v>44.75</v>
-      </c>
-      <c r="N17" s="11">
-        <v>41.5</v>
-      </c>
-      <c r="O17" s="1">
-        <f>G17*P17</f>
-        <v>54.275999999999996</v>
-      </c>
-      <c r="P17" s="12">
-        <f>(3.4*1.5+3.4*0.9)/6.8</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="6"/>
-        <v>83.631</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="10">
-        <v>15.4</v>
-      </c>
-      <c r="U17" s="10">
-        <v>22.1</v>
-      </c>
-      <c r="V17" s="10">
-        <v>86.01</v>
-      </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10">
-        <f>T17-J17</f>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Y17" s="10">
-        <f>U17-K17</f>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Z17" s="10">
-        <f t="shared" si="2"/>
-        <v>2.3790000000000049</v>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="7"/>
+        <v>2.7780882352941205</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
@@ -5115,72 +5082,72 @@
       <c r="E18">
         <v>98.4</v>
       </c>
-      <c r="F18" s="5">
-        <f>D18-C18</f>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
         <v>12.700000000000003</v>
       </c>
-      <c r="G18" s="6">
-        <f>E18-E11</f>
+      <c r="G18" s="5">
+        <f t="shared" si="11"/>
         <v>68.680000000000007</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Turmas</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>22.1</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
-        <v>34.700000000000003</v>
+        <f t="shared" si="9"/>
+        <v>34.799999999999997</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="13">
         <f>M17-(K18-J18)*2.5</f>
-        <v>12.999999999999993</v>
-      </c>
-      <c r="N18" s="11">
-        <v>20.25</v>
+        <v>12.750000000000011</v>
+      </c>
+      <c r="N18" s="10">
+        <v>9.5</v>
       </c>
       <c r="O18" s="1">
-        <f>G18*P18</f>
+        <f t="shared" si="2"/>
         <v>61.812000000000005</v>
       </c>
       <c r="P18" s="1">
         <v>0.9</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>106.392</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="9">
         <v>22.1</v>
       </c>
-      <c r="U18" s="10">
-        <v>30.5</v>
-      </c>
-      <c r="V18" s="10">
-        <v>147.6</v>
-      </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="10">
-        <f>T18-J18</f>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Y18" s="10">
-        <f>U18-K18</f>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="Z18" s="10">
-        <f t="shared" si="2"/>
-        <v>41.207999999999998</v>
+      <c r="U18" s="9">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="V18" s="9">
+        <v>106.39</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" si="7"/>
+        <v>-1.9999999999953388E-3</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
@@ -5196,72 +5163,74 @@
       <c r="E19">
         <v>48</v>
       </c>
-      <c r="F19" s="5">
-        <f>D19-C19</f>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
         <v>6.1000000000000014</v>
       </c>
-      <c r="G19" s="6">
-        <f>E19-E12</f>
+      <c r="G19" s="5">
+        <f t="shared" si="11"/>
         <v>33.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Disciplinas</v>
       </c>
       <c r="J19" s="1">
+        <f t="shared" si="8"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="9"/>
+        <v>40.099999999999994</v>
+      </c>
+      <c r="L19" s="11">
+        <f>(3.8*1+1.6*1.5)/5.4</f>
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="M19" s="13">
+        <f>M18-(K19-J19)*2.5</f>
+        <v>-0.49999999999998224</v>
+      </c>
+      <c r="N19" s="10">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>36.105555555555554</v>
+      </c>
+      <c r="P19" s="11">
+        <f>(3.8*0.9+1.6*1.5)/5.4</f>
+        <v>1.0777777777777777</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="12"/>
+        <v>57.855555555555554</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="9">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="U19" s="9">
+        <v>40.1</v>
+      </c>
+      <c r="V19" s="9">
+        <v>59.98</v>
+      </c>
+      <c r="W19" s="8"/>
+      <c r="X19" s="9">
         <f t="shared" si="3"/>
-        <v>34.700000000000003</v>
-      </c>
-      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
         <f t="shared" si="4"/>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <f>M18-(K19-J19)*2.5</f>
-        <v>-2.2500000000000107</v>
-      </c>
-      <c r="N19" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="O19" s="1">
-        <f>G19*P19</f>
-        <v>30.150000000000002</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="6"/>
-        <v>51.900000000000006</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19" s="10">
-        <v>30.5</v>
-      </c>
-      <c r="U19" s="10">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="V19" s="10">
-        <v>72</v>
-      </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="10">
-        <f>T19-J19</f>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="Y19" s="10">
-        <f>U19-K19</f>
-        <v>-6.1000000000000014</v>
-      </c>
-      <c r="Z19" s="10">
-        <f t="shared" si="2"/>
-        <v>20.099999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" si="7"/>
+        <v>2.1244444444444426</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
@@ -5277,71 +5246,72 @@
       <c r="E20">
         <v>55.2</v>
       </c>
-      <c r="F20" s="5">
-        <f>D20-C20</f>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
         <v>7.0999999999999943</v>
       </c>
-      <c r="G20" s="6">
-        <f>E20-E13</f>
+      <c r="G20" s="5">
+        <f t="shared" si="11"/>
         <v>38.53</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Aluno</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>40.800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>40.099999999999994</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>45.500000000000007</v>
+        <f t="shared" si="9"/>
+        <v>44.8</v>
       </c>
       <c r="L20" s="1">
         <v>1.5</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="5"/>
-        <v>9.4999999999999964</v>
-      </c>
-      <c r="N20" s="11">
-        <v>2.5</v>
+      <c r="M20" s="13">
+        <f t="shared" si="10"/>
+        <v>11.250000000000025</v>
+      </c>
+      <c r="N20" s="10">
+        <v>16</v>
       </c>
       <c r="O20" s="1">
-        <f>G20*P20</f>
+        <f t="shared" si="2"/>
         <v>57.795000000000002</v>
       </c>
       <c r="P20" s="1">
         <v>1.5</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>82.800000000000011</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="R20" s="1"/>
+      <c r="S20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T20" s="10">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="U20" s="10">
-        <v>39.4</v>
-      </c>
-      <c r="V20" s="10">
+      <c r="T20" s="9">
+        <v>40.1</v>
+      </c>
+      <c r="U20" s="9">
+        <v>44.8</v>
+      </c>
+      <c r="V20" s="9">
         <v>82.8</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="10">
-        <f>T20-J20</f>
-        <v>-6.1000000000000014</v>
-      </c>
-      <c r="Y20" s="10">
-        <f>U20-K20</f>
-        <v>-6.1000000000000085</v>
-      </c>
-      <c r="Z20" s="10">
-        <f t="shared" si="2"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5358,71 +5328,71 @@
       <c r="E21">
         <v>55.2</v>
       </c>
-      <c r="F21" s="5">
-        <f>D21-C21</f>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
         <v>7.1000000000000085</v>
       </c>
-      <c r="G21" s="6">
-        <f>E21-E14</f>
+      <c r="G21" s="5">
+        <f t="shared" si="11"/>
         <v>38.53</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Áreas</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>45.500000000000007</v>
+        <f t="shared" si="8"/>
+        <v>44.8</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
-        <v>50.20000000000001</v>
+        <f t="shared" si="9"/>
+        <v>49.5</v>
       </c>
       <c r="L21" s="1">
         <v>1.5</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="5"/>
-        <v>21.250000000000004</v>
-      </c>
-      <c r="N21" s="11">
-        <v>14.5</v>
+      <c r="M21" s="13">
+        <f t="shared" si="10"/>
+        <v>23.000000000000032</v>
+      </c>
+      <c r="N21" s="10">
+        <v>28.25</v>
       </c>
       <c r="O21" s="1">
-        <f>G21*P21</f>
+        <f t="shared" si="2"/>
         <v>57.795000000000002</v>
       </c>
       <c r="P21" s="1">
         <v>1.5</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>82.800000000000011</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="10">
-        <v>39.4</v>
-      </c>
-      <c r="U21" s="10">
-        <v>44.1</v>
-      </c>
-      <c r="V21" s="10">
+      <c r="T21" s="9">
+        <v>44.8</v>
+      </c>
+      <c r="U21" s="9">
+        <v>49.6</v>
+      </c>
+      <c r="V21" s="9">
         <v>82.8</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="10">
-        <f>T21-J21</f>
-        <v>-6.1000000000000085</v>
-      </c>
-      <c r="Y21" s="10">
-        <f>U21-K21</f>
-        <v>-6.1000000000000085</v>
-      </c>
-      <c r="Z21" s="10">
-        <f t="shared" si="2"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Z21" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5439,71 +5409,71 @@
       <c r="E22">
         <v>48</v>
       </c>
-      <c r="F22" s="5">
-        <f>D22-C22</f>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
         <v>6.1999999999999886</v>
       </c>
-      <c r="G22" s="6">
-        <f>E22-E15</f>
+      <c r="G22" s="5">
+        <f t="shared" si="11"/>
         <v>33.5</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Professores</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
-        <v>50.20000000000001</v>
+        <f t="shared" si="8"/>
+        <v>49.5</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>54.300000000000011</v>
+        <f t="shared" si="9"/>
+        <v>53.6</v>
       </c>
       <c r="L22" s="1">
         <v>1.5</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="5"/>
-        <v>31.500000000000007</v>
-      </c>
-      <c r="N22" s="11">
-        <v>25</v>
+      <c r="M22" s="13">
+        <f t="shared" si="10"/>
+        <v>33.250000000000036</v>
+      </c>
+      <c r="N22" s="10">
+        <v>38.75</v>
       </c>
       <c r="O22" s="1">
-        <f>G22*P22</f>
+        <f t="shared" si="2"/>
         <v>50.25</v>
       </c>
       <c r="P22" s="1">
         <v>1.5</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="10">
-        <v>44.1</v>
-      </c>
-      <c r="U22" s="10">
-        <v>48.2</v>
-      </c>
-      <c r="V22" s="10">
+      <c r="T22" s="9">
+        <v>49.6</v>
+      </c>
+      <c r="U22" s="9">
+        <v>53.7</v>
+      </c>
+      <c r="V22" s="9">
         <v>72</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="10">
-        <f>T22-J22</f>
-        <v>-6.1000000000000085</v>
-      </c>
-      <c r="Y22" s="10">
-        <f>U22-K22</f>
-        <v>-6.1000000000000085</v>
-      </c>
-      <c r="Z22" s="10">
-        <f t="shared" si="2"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5520,71 +5490,71 @@
       <c r="E23">
         <v>43.2</v>
       </c>
-      <c r="F23" s="5">
-        <f>D23-C23</f>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
         <v>5.6000000000000085</v>
       </c>
-      <c r="G23" s="6">
-        <f>E23-E16</f>
+      <c r="G23" s="5">
+        <f t="shared" si="11"/>
         <v>30.150000000000002</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Codificacao Usuários</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
-        <v>54.300000000000011</v>
+        <f t="shared" si="8"/>
+        <v>53.6</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
-        <v>58.000000000000014</v>
+        <f t="shared" si="9"/>
+        <v>57.300000000000004</v>
       </c>
       <c r="L23" s="1">
         <v>1.5</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="5"/>
-        <v>40.750000000000014</v>
-      </c>
-      <c r="N23" s="11">
-        <v>34.75</v>
+      <c r="M23" s="13">
+        <f t="shared" si="10"/>
+        <v>42.500000000000043</v>
+      </c>
+      <c r="N23" s="10">
+        <v>48.25</v>
       </c>
       <c r="O23" s="1">
-        <f>G23*P23</f>
+        <f t="shared" si="2"/>
         <v>45.225000000000001</v>
       </c>
       <c r="P23" s="1">
         <v>1.5</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="T23" s="10">
-        <v>48.2</v>
-      </c>
-      <c r="U23" s="10">
-        <v>52</v>
-      </c>
-      <c r="V23" s="10">
+      <c r="T23" s="9">
+        <v>53.7</v>
+      </c>
+      <c r="U23" s="9">
+        <v>57.4</v>
+      </c>
+      <c r="V23" s="9">
         <v>64.8</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="10">
-        <f>T23-J23</f>
-        <v>-6.1000000000000085</v>
-      </c>
-      <c r="Y23" s="10">
-        <f>U23-K23</f>
-        <v>-6.0000000000000142</v>
-      </c>
-      <c r="Z23" s="10">
-        <f t="shared" si="2"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Y23" s="9">
+        <f t="shared" si="4"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="Z23" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5601,69 +5571,69 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="5">
-        <f>D24-C24</f>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
         <v>8.3999999999999915</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Inscrições</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>58.000000000000014</v>
+        <f t="shared" si="8"/>
+        <v>57.300000000000004</v>
       </c>
       <c r="K24" s="1">
         <f>J24+ROUND(Q17*0.13/L24,1)</f>
-        <v>67.700000000000017</v>
-      </c>
-      <c r="L24" s="1">
-        <f>(3*1.5+9*1)/12</f>
-        <v>1.125</v>
-      </c>
-      <c r="M24" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="L24" s="14">
+        <f>(((50-N23)/2.5-0.1)*1.5+(U24-T24-((50-N23)/2.5-0.1))*1)/(U24-T24+0.1)</f>
+        <v>1.0181818181818183</v>
+      </c>
+      <c r="M24" s="13">
         <f>M23+3*2.5-(K24-J24-3)*2.5</f>
-        <v>31.500000000000007</v>
-      </c>
-      <c r="N24" s="11">
-        <v>44.75</v>
+        <v>31.000000000000039</v>
+      </c>
+      <c r="N24" s="10">
+        <v>24.25</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="10">
-        <v>52</v>
-      </c>
-      <c r="U24" s="10">
-        <v>60.1</v>
-      </c>
-      <c r="V24" s="10">
-        <v>0</v>
-      </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="10">
-        <f>T24-J24</f>
-        <v>-6.0000000000000142</v>
-      </c>
-      <c r="Y24" s="10">
-        <f>U24-K24</f>
-        <v>-7.6000000000000156</v>
-      </c>
-      <c r="Z24" s="10">
-        <f t="shared" si="2"/>
+      <c r="T24" s="9">
+        <v>57.4</v>
+      </c>
+      <c r="U24" s="9">
+        <v>68.3</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="8"/>
+      <c r="X24" s="9">
+        <f t="shared" si="3"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5680,68 +5650,69 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
-        <f>D25-C25</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>12.800000000000011</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Turmas</v>
       </c>
       <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ref="K25:K30" si="13">J25+ROUND(Q18*0.13/L25,1)</f>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="L25" s="14">
+        <f>((N24/2.5-0.1)*1+(U25-T25-(N24/2.5-0.1))*1.5)/(U25-T25+0.1)</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="M25" s="13">
+        <f>M24-(K25-J25)*2.5</f>
+        <v>-0.24999999999996092</v>
+      </c>
+      <c r="N25" s="10">
+        <v>7</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="9">
+        <v>68.3</v>
+      </c>
+      <c r="U25" s="9">
+        <v>80.7</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8"/>
+      <c r="X25" s="9">
         <f t="shared" si="3"/>
-        <v>67.700000000000017</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" ref="K25:K30" si="7">J25+ROUND(Q18*0.13/L25,1)</f>
-        <v>81.500000000000014</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4">
-        <f>M24-(K25-J25)*2.5</f>
-        <v>-2.9999999999999858</v>
-      </c>
-      <c r="N25" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="10">
-        <v>60.1</v>
-      </c>
-      <c r="U25" s="10">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="V25" s="10">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="10">
-        <f>T25-J25</f>
-        <v>-7.6000000000000156</v>
-      </c>
-      <c r="Y25" s="10">
-        <f>U25-K25</f>
-        <v>-8.6000000000000085</v>
-      </c>
-      <c r="Z25" s="10">
-        <f t="shared" si="2"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5758,68 +5729,68 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="5">
-        <f>D26-C26</f>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
         <v>6.1999999999999886</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Disciplinas</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
-        <v>81.500000000000014</v>
+        <f t="shared" si="8"/>
+        <v>80.400000000000006</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="7"/>
-        <v>86.000000000000014</v>
+        <f t="shared" si="13"/>
+        <v>85.4</v>
       </c>
       <c r="L26" s="1">
         <v>1.5</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="5"/>
-        <v>8.2500000000000142</v>
-      </c>
-      <c r="N26" s="11">
-        <v>3.5</v>
+      <c r="M26" s="13">
+        <f t="shared" si="10"/>
+        <v>12.250000000000039</v>
+      </c>
+      <c r="N26" s="10">
+        <v>20.25</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="1">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="U26" s="1">
-        <v>79.2</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="10">
-        <f>T26-J26</f>
-        <v>-8.6000000000000085</v>
-      </c>
-      <c r="Y26" s="10">
-        <f>U26-K26</f>
-        <v>-6.8000000000000114</v>
-      </c>
-      <c r="Z26" s="10">
-        <f t="shared" si="2"/>
+      <c r="T26" s="9">
+        <v>80.7</v>
+      </c>
+      <c r="U26" s="9">
+        <v>85.9</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="8"/>
+      <c r="X26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="Y26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z26" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5836,68 +5807,68 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="5">
-        <f>D27-C27</f>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Aluno</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
-        <v>86.000000000000014</v>
+        <f t="shared" si="8"/>
+        <v>85.4</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="7"/>
-        <v>93.200000000000017</v>
+        <f t="shared" si="13"/>
+        <v>92.600000000000009</v>
       </c>
       <c r="L27" s="1">
         <v>1.5</v>
       </c>
-      <c r="M27" s="4">
-        <f t="shared" si="5"/>
-        <v>26.250000000000021</v>
-      </c>
-      <c r="N27" s="11">
-        <v>21.5</v>
+      <c r="M27" s="13">
+        <f t="shared" si="10"/>
+        <v>30.250000000000046</v>
+      </c>
+      <c r="N27" s="10">
+        <v>38.5</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T27" s="10">
-        <v>79.2</v>
-      </c>
-      <c r="U27" s="10">
-        <v>86.3</v>
-      </c>
-      <c r="V27" s="10">
-        <v>0</v>
-      </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="10">
-        <f>T27-J27</f>
-        <v>-6.8000000000000114</v>
-      </c>
-      <c r="Y27" s="10">
-        <f>U27-K27</f>
-        <v>-6.9000000000000199</v>
-      </c>
-      <c r="Z27" s="10">
-        <f t="shared" si="2"/>
+      <c r="T27" s="9">
+        <v>85.9</v>
+      </c>
+      <c r="U27" s="9">
+        <v>93.1</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="8"/>
+      <c r="X27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.49999999999998579</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5914,68 +5885,70 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="5">
-        <f>D28-C28</f>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Áreas</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>92.600000000000009</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="13"/>
+        <v>101.2</v>
+      </c>
+      <c r="L28" s="14">
+        <f>(((50-N27)/2.5-0.1)*1.5+(U28-T28-((50-N27)/2.5-0.1))*1)/(U28-T28+0.1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="10"/>
+        <v>51.750000000000028</v>
+      </c>
+      <c r="N28" s="10">
+        <v>40</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" s="9">
+        <v>93.1</v>
+      </c>
+      <c r="U28" s="9">
+        <v>101.6</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="8"/>
+      <c r="X28" s="9">
         <f t="shared" si="3"/>
-        <v>93.200000000000017</v>
-      </c>
-      <c r="K28" s="1">
+        <v>0.49999999999998579</v>
+      </c>
+      <c r="Y28" s="9">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="Z28" s="9">
         <f t="shared" si="7"/>
-        <v>100.40000000000002</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="5"/>
-        <v>44.250000000000028</v>
-      </c>
-      <c r="N28" s="11">
-        <v>39.75</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T28" s="10">
-        <v>86.3</v>
-      </c>
-      <c r="U28" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="V28" s="10">
-        <v>0</v>
-      </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="10">
-        <f>T28-J28</f>
-        <v>-6.9000000000000199</v>
-      </c>
-      <c r="Y28" s="10">
-        <f>U28-K28</f>
-        <v>-6.9000000000000199</v>
-      </c>
-      <c r="Z28" s="10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5992,68 +5965,68 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="5">
-        <f>D29-C29</f>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Professores</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
-        <v>100.40000000000002</v>
+        <f t="shared" si="8"/>
+        <v>101.2</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="7"/>
-        <v>109.80000000000003</v>
+        <f t="shared" si="13"/>
+        <v>110.60000000000001</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="13">
         <f>M28-(K29-J29)*2.5</f>
-        <v>20.750000000000014</v>
-      </c>
-      <c r="N29" s="11">
-        <v>41.5</v>
+        <v>28.250000000000014</v>
+      </c>
+      <c r="N29" s="10">
+        <v>16.25</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="S29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="U29" s="10">
-        <v>100.9</v>
-      </c>
-      <c r="V29" s="10">
-        <v>0</v>
-      </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="10">
-        <f>T29-J29</f>
-        <v>-6.9000000000000199</v>
-      </c>
-      <c r="Y29" s="10">
-        <f>U29-K29</f>
-        <v>-8.9000000000000199</v>
-      </c>
-      <c r="Z29" s="10">
-        <f t="shared" si="2"/>
+      <c r="T29" s="9">
+        <v>101.6</v>
+      </c>
+      <c r="U29" s="9">
+        <v>111</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="Y29" s="9">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="Z29" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6070,77 +6043,82 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="5">
-        <f>D30-C30</f>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="5"/>
         <v>Testes Usuários</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="8"/>
+        <v>110.60000000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="13"/>
+        <v>118.50000000000001</v>
+      </c>
+      <c r="L30" s="14">
+        <f>((N29/2.5-0.1)*1+(U30-T30-(N29/2.5-0.1))*1.5)/(U30-T30+0.1)</f>
+        <v>1.0705128205128207</v>
+      </c>
+      <c r="M30" s="13">
+        <f>M29-(K30-J30)*2.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="N30" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="9">
+        <v>111</v>
+      </c>
+      <c r="U30" s="9">
+        <v>118.7</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="8"/>
+      <c r="X30" s="9">
         <f t="shared" si="3"/>
-        <v>109.80000000000003</v>
-      </c>
-      <c r="K30" s="1">
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="4"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="Z30" s="9">
         <f t="shared" si="7"/>
-        <v>118.20000000000003</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <f>M29-(K30-J30)*2.5</f>
-        <v>-0.25</v>
-      </c>
-      <c r="N30" s="11">
-        <v>27.25</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" s="10">
-        <v>100.9</v>
-      </c>
-      <c r="U30" s="10">
-        <v>106.5</v>
-      </c>
-      <c r="V30" s="10">
-        <v>0</v>
-      </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="10">
-        <f>T30-J30</f>
-        <v>-8.9000000000000199</v>
-      </c>
-      <c r="Y30" s="10">
-        <f>U30-K30</f>
-        <v>-11.700000000000031</v>
-      </c>
-      <c r="Z30" s="10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="S2:V30">
+    <sortState ref="S3:V30">
+      <sortCondition ref="T2:T30"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="S3:V30">
     <sortCondition ref="T2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Simulacao Cenarios.xlsx
+++ b/data/Simulacao Cenarios.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito - Overworking" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gabarito - Exhaustion'!$S$2:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -157,12 +157,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0;\-0.0;\-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -246,10 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,14 +533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -545,7 +549,7 @@
     <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22">
       <c r="K1">
         <v>1.5</v>
       </c>
@@ -553,7 +557,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -601,7 +605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -668,7 +672,7 @@
         <v>-5.0000000000007816E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -735,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -802,7 +806,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -869,7 +873,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -936,7 +940,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>5.0000000000007816E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>-5.000000000002558E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -2008,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:22">
       <c r="K33">
         <v>1</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:22">
       <c r="I34" t="s">
         <v>38</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:22">
       <c r="I35" s="6" t="str">
         <f>B3</f>
         <v>Requisitos Inscrições</v>
@@ -2536,7 +2540,7 @@
         <v>-7.0000000000014495E-3</v>
       </c>
     </row>
-    <row r="36" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:22">
       <c r="I36" s="6" t="str">
         <f t="shared" ref="I36:I62" si="13">B4</f>
         <v>Requisitos Turmas</v>
@@ -2582,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:22">
       <c r="I37" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Disciplinas</v>
@@ -2628,7 +2632,7 @@
         <v>-9.9999999999944578E-4</v>
       </c>
     </row>
-    <row r="38" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:22">
       <c r="I38" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Aluno</v>
@@ -2674,7 +2678,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
     </row>
-    <row r="39" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:22">
       <c r="I39" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Áreas</v>
@@ -2720,7 +2724,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
     </row>
-    <row r="40" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:22">
       <c r="I40" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Professores</v>
@@ -2766,7 +2770,7 @@
         <v>-9.9999999999944578E-4</v>
       </c>
     </row>
-    <row r="41" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:22">
       <c r="I41" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Usuários</v>
@@ -2812,7 +2816,7 @@
         <v>4.9999999999998934E-3</v>
       </c>
     </row>
-    <row r="42" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:22">
       <c r="I42" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Inscrições</v>
@@ -2858,7 +2862,7 @@
         <v>7.0000000000014495E-3</v>
       </c>
     </row>
-    <row r="43" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:22">
       <c r="I43" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Turmas</v>
@@ -2904,7 +2908,7 @@
         <v>2.0000000000024443E-3</v>
       </c>
     </row>
-    <row r="44" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:22">
       <c r="I44" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Disciplinas</v>
@@ -2950,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:22">
       <c r="I45" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Aluno</v>
@@ -2996,7 +3000,7 @@
         <v>6.9999999999978968E-3</v>
       </c>
     </row>
-    <row r="46" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:22">
       <c r="I46" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Áreas</v>
@@ -3042,7 +3046,7 @@
         <v>6.9999999999978968E-3</v>
       </c>
     </row>
-    <row r="47" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:22">
       <c r="I47" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Professores</v>
@@ -3088,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:22">
       <c r="I48" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Usuários</v>
@@ -3134,7 +3138,7 @@
         <v>-5.0000000000007816E-3</v>
       </c>
     </row>
-    <row r="49" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:22">
       <c r="I49" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Inscrições</v>
@@ -3180,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:22">
       <c r="I50" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Turmas</v>
@@ -3226,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:22">
       <c r="I51" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Disciplinas</v>
@@ -3272,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:22">
       <c r="I52" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Aluno</v>
@@ -3318,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:22">
       <c r="I53" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Áreas</v>
@@ -3364,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:22">
       <c r="I54" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Professores</v>
@@ -3410,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:22">
       <c r="I55" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Usuários</v>
@@ -3456,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:22">
       <c r="I56" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Inscrições</v>
@@ -3500,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:22">
       <c r="I57" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Turmas</v>
@@ -3544,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:22">
       <c r="I58" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Disciplinas</v>
@@ -3588,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:22">
       <c r="I59" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Aluno</v>
@@ -3632,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:22">
       <c r="I60" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Áreas</v>
@@ -3676,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:22">
       <c r="I61" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Professores</v>
@@ -3720,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:22">
       <c r="I62" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Usuários</v>
@@ -3774,14 +3778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -3790,12 +3794,12 @@
     <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26">
       <c r="N1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -3827,7 +3831,7 @@
       <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="3"/>
@@ -3853,15 +3857,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26">
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E3">
         <v>8.6300000000000008</v>
@@ -3881,16 +3885,16 @@
       </c>
       <c r="J3" s="1">
         <f>C3</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <f>J3+F3/L3</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>1.5</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <f>(K3-J3)*2.5</f>
         <v>2.5</v>
       </c>
@@ -3908,40 +3912,40 @@
         <f>O3</f>
         <v>12.945</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="T3" s="15">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15">
+        <v>1</v>
+      </c>
+      <c r="V3" s="15">
         <v>12.94</v>
       </c>
-      <c r="X3" s="1">
-        <f t="shared" ref="X3:X30" si="3">T3-J3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y30" si="4">U3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <f>V3-Q3</f>
-        <v>-5.0000000000007816E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X3" s="14">
+        <f>ROUND(T3-J3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>ROUND(U3-K3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <f>ROUND(V3-Q3,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26">
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
-        <v>4.0999999999999996</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="E4">
         <v>13.1</v>
@@ -3956,23 +3960,23 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="6" t="str">
-        <f t="shared" ref="I4:I30" si="5">B4</f>
+        <f t="shared" ref="I4:I30" si="3">B4</f>
         <v>Requisitos Turmas</v>
       </c>
       <c r="J4" s="1">
         <f>K3</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <f>J4+ROUND(F4/L4,1)</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L4" s="1">
         <v>1.5</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f>M3+(K4-J4)*2.5</f>
-        <v>6.7499999999999991</v>
+        <v>6.75</v>
       </c>
       <c r="N4" s="10">
         <v>6.75</v>
@@ -3985,51 +3989,51 @@
         <v>1.5</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q9" si="6">O4</f>
+        <f t="shared" ref="Q4:Q9" si="4">O4</f>
         <v>19.649999999999999</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U4" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="V4" s="9">
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="V4" s="15">
         <v>19.649999999999999</v>
       </c>
       <c r="W4" s="8"/>
-      <c r="X4" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="9">
-        <f t="shared" si="4"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="Z4" s="9">
-        <f t="shared" ref="Z4:Z30" si="7">V4-Q4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X4" s="14">
+        <f t="shared" ref="X4:X30" si="5">ROUND(T4-J4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y30" si="6">ROUND(U4-K4,1)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" ref="Z4:Z30" si="7">ROUND(V4-Q4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26">
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>4.0999999999999996</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="D5">
-        <v>5.2</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="E5">
         <v>6.39</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.1000000000000005</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
@@ -4037,21 +4041,21 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Requisitos Disciplinas</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J30" si="8">K4</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K23" si="9">J5+ROUND(F5/L5,1)</f>
-        <v>3.5</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="L5" s="1">
         <v>1.5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M28" si="10">M4+(K5-J5)*2.5</f>
         <v>8.5</v>
       </c>
@@ -4066,44 +4070,44 @@
         <v>1.5</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="U5" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="V5" s="9">
+      <c r="T5" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="U5" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="V5" s="15">
         <v>9.58</v>
       </c>
       <c r="W5" s="8"/>
-      <c r="X5" s="9">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="Y5" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9">
+      <c r="X5" s="14">
+        <f t="shared" si="5"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
         <f t="shared" si="7"/>
-        <v>-4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="D6">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E6">
         <v>7.35</v>
@@ -4118,21 +4122,21 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Requisitos Aluno</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="9"/>
-        <v>4.4000000000000004</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="L6" s="1">
         <v>1.5</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <f t="shared" si="10"/>
         <v>10.75</v>
       </c>
@@ -4147,44 +4151,44 @@
         <v>1.5</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>11.024999999999999</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="U6" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="V6" s="9">
+      <c r="T6" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="U6" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="V6" s="15">
         <v>11.02</v>
       </c>
       <c r="W6" s="8"/>
-      <c r="X6" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
+      <c r="X6" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
         <f t="shared" si="7"/>
-        <v>-4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>7.9</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="E7">
         <v>7.35</v>
@@ -4199,21 +4203,21 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Requisitos Áreas</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="8"/>
-        <v>4.4000000000000004</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="9"/>
-        <v>5.3000000000000007</v>
+        <v>5.2000000000000011</v>
       </c>
       <c r="L7" s="1">
         <v>1.5</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
@@ -4228,44 +4232,44 @@
         <v>1.5</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>11.024999999999999</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U7" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="V7" s="9">
+      <c r="T7" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="U7" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="V7" s="15">
         <v>11.02</v>
       </c>
       <c r="W7" s="8"/>
-      <c r="X7" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
+      <c r="X7" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
         <f t="shared" si="7"/>
-        <v>-4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>7.9</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="D8">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>6.39</v>
@@ -4280,21 +4284,21 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Requisitos Professores</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="8"/>
-        <v>5.3000000000000007</v>
+        <v>5.2000000000000011</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="9"/>
-        <v>6.1000000000000005</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="L8" s="1">
         <v>1.5</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
@@ -4309,44 +4313,44 @@
         <v>1.5</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.5849999999999991</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="U8" s="9">
-        <v>6.1</v>
-      </c>
-      <c r="V8" s="9">
+      <c r="T8" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="U8" s="15">
+        <v>6</v>
+      </c>
+      <c r="V8" s="15">
         <v>9.58</v>
       </c>
       <c r="W8" s="8"/>
-      <c r="X8" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
+      <c r="X8" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
         <f t="shared" si="7"/>
-        <v>-4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E9">
         <v>5.75</v>
@@ -4361,21 +4365,21 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Requisitos Usuários</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="8"/>
-        <v>6.1000000000000005</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="9"/>
-        <v>6.8000000000000007</v>
+        <v>6.7000000000000011</v>
       </c>
       <c r="L9" s="1">
         <v>1.5</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <f t="shared" si="10"/>
         <v>16.75</v>
       </c>
@@ -4390,44 +4394,44 @@
         <v>1.5</v>
       </c>
       <c r="Q9" s="1">
+        <f t="shared" si="4"/>
+        <v>8.625</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>6</v>
+      </c>
+      <c r="U9" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="V9" s="15">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="W9" s="8"/>
+      <c r="X9" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
         <f t="shared" si="6"/>
-        <v>8.625</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>6.1</v>
-      </c>
-      <c r="U9" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="V9" s="9">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="W9" s="8"/>
-      <c r="X9" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
         <f t="shared" si="7"/>
-        <v>5.0000000000007816E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D10">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E10">
         <v>19.57</v>
@@ -4442,21 +4446,21 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Inscrições</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="8"/>
-        <v>6.8000000000000007</v>
+        <v>6.7000000000000011</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="9"/>
-        <v>8.1000000000000014</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="L10" s="1">
         <v>1.5</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
@@ -4477,38 +4481,38 @@
       <c r="S10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="U10" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="V10" s="9">
+      <c r="T10" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="U10" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="V10" s="15">
         <v>29.36</v>
       </c>
       <c r="W10" s="8"/>
-      <c r="X10" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <f t="shared" si="4"/>
-        <v>9.9999999999997868E-2</v>
-      </c>
-      <c r="Z10" s="9">
+      <c r="X10" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="14">
         <f t="shared" si="7"/>
-        <v>4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D11">
-        <v>15.3</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="E11">
         <v>29.72</v>
@@ -4523,21 +4527,21 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Turmas</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="8"/>
-        <v>8.1000000000000014</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="9"/>
-        <v>10.200000000000001</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="L11" s="1">
         <v>1.5</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f t="shared" si="10"/>
         <v>25.25</v>
       </c>
@@ -4558,45 +4562,45 @@
       <c r="S11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="U11" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="V11" s="9">
+      <c r="T11" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="U11" s="15">
+        <v>10.1</v>
+      </c>
+      <c r="V11" s="15">
         <v>44.58</v>
       </c>
       <c r="W11" s="8"/>
-      <c r="X11" s="9">
-        <f t="shared" si="3"/>
-        <v>9.9999999999997868E-2</v>
-      </c>
-      <c r="Y11" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9">
+      <c r="X11" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26">
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>15.3</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D12">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="E12">
         <v>14.5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.4999999999999982</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="11"/>
@@ -4604,21 +4608,21 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Disciplinas</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="8"/>
-        <v>10.200000000000001</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="9"/>
-        <v>11.200000000000001</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="L12" s="1">
         <v>1.5</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f t="shared" si="10"/>
         <v>27.75</v>
       </c>
@@ -4639,38 +4643,38 @@
       <c r="S12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="U12" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="V12" s="9">
+      <c r="T12" s="15">
+        <v>10.1</v>
+      </c>
+      <c r="U12" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="V12" s="15">
         <v>21.75</v>
       </c>
       <c r="W12" s="8"/>
-      <c r="X12" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
+      <c r="X12" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26">
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="D13">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E13">
         <v>16.670000000000002</v>
@@ -4685,21 +4689,21 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Aluno</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="8"/>
-        <v>11.200000000000001</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="9"/>
-        <v>12.3</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="L13" s="1">
         <v>1.5</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <f t="shared" si="10"/>
         <v>30.5</v>
       </c>
@@ -4720,38 +4724,38 @@
       <c r="S13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="U13" s="9">
-        <v>12.3</v>
-      </c>
-      <c r="V13" s="9">
+      <c r="T13" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="U13" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="V13" s="15">
         <v>25.01</v>
       </c>
       <c r="W13" s="8"/>
-      <c r="X13" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9">
+      <c r="X13" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
         <f t="shared" si="7"/>
-        <v>4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D14">
-        <v>20.2</v>
+        <v>20.099999999999998</v>
       </c>
       <c r="E14">
         <v>16.670000000000002</v>
@@ -4766,21 +4770,21 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Áreas</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="8"/>
-        <v>12.3</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="9"/>
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="L14" s="1">
         <v>1.5</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <f t="shared" si="10"/>
         <v>33.25</v>
       </c>
@@ -4801,38 +4805,38 @@
       <c r="S14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="9">
-        <v>12.3</v>
-      </c>
-      <c r="U14" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="V14" s="9">
+      <c r="T14" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="U14" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="V14" s="15">
         <v>25.01</v>
       </c>
       <c r="W14" s="8"/>
-      <c r="X14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Z14" s="9">
+      <c r="X14" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z14" s="14">
         <f t="shared" si="7"/>
-        <v>4.9999999999990052E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>20.2</v>
+        <v>20.099999999999998</v>
       </c>
       <c r="D15">
-        <v>21.7</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="E15">
         <v>14.5</v>
@@ -4847,21 +4851,21 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Professores</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="8"/>
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="9"/>
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="L15" s="1">
         <v>1.5</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <f t="shared" si="10"/>
         <v>35.75</v>
       </c>
@@ -4879,41 +4883,41 @@
         <f t="shared" si="12"/>
         <v>21.75</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="U15" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="V15" s="9">
+      <c r="T15" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="U15" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="V15" s="7">
         <v>21.75</v>
       </c>
       <c r="W15" s="8"/>
-      <c r="X15" s="9">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Y15" s="9">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Z15" s="9">
+      <c r="X15" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z15" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26">
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>21.7</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="E16">
         <v>13.05</v>
@@ -4928,21 +4932,21 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Projeto Usuários</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="8"/>
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="9"/>
-        <v>15.3</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="L16" s="1">
         <v>1.5</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
@@ -4963,38 +4967,38 @@
       <c r="S16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="U16" s="9">
-        <v>15.4</v>
-      </c>
-      <c r="V16" s="9">
+      <c r="T16" s="15">
+        <v>14.4</v>
+      </c>
+      <c r="U16" s="15">
+        <v>15.3</v>
+      </c>
+      <c r="V16" s="15">
         <v>19.57</v>
       </c>
       <c r="W16" s="8"/>
-      <c r="X16" s="9">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Y16" s="9">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Z16" s="9">
+      <c r="X16" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z16" s="14">
         <f t="shared" si="7"/>
-        <v>-5.000000000002558E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D17">
-        <v>31.4</v>
+        <v>31.299999999999997</v>
       </c>
       <c r="E17">
         <v>64.8</v>
@@ -5009,75 +5013,75 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Inscrições</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="8"/>
-        <v>15.3</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="9"/>
-        <v>22.1</v>
-      </c>
-      <c r="L17" s="14">
-        <f>(3.3*1.5+3.5*1)/6.8</f>
-        <v>1.2426470588235294</v>
-      </c>
-      <c r="M17" s="13">
+        <v>21.900000000000002</v>
+      </c>
+      <c r="L17" s="13">
+        <f>((50-N16)/2.5*1.5+($U17-$T17-(50-N16)/2.5)*1)/($U17-$T17)</f>
+        <v>1.2537313432835819</v>
+      </c>
+      <c r="M17" s="12">
         <f>M16+4.7*2.5-(K17-J17-4.7)*2.5</f>
-        <v>44.5</v>
+        <v>44.75</v>
       </c>
       <c r="N17" s="10">
         <v>41.5</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="2"/>
-        <v>53.876911764705881</v>
-      </c>
-      <c r="P17" s="14">
-        <f>(3.3*1.5+3.5*0.9)/6.8</f>
-        <v>1.1911764705882353</v>
+        <v>56.706268656716404</v>
+      </c>
+      <c r="P17" s="13">
+        <f>((50-N16)/2.5*1.5+($U17-$T17-(50-N16)/2.5)*1)/($U17-$T17)</f>
+        <v>1.2537313432835819</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="12"/>
-        <v>83.231911764705885</v>
+        <v>86.061268656716408</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="9">
-        <v>15.4</v>
-      </c>
-      <c r="U17" s="9">
-        <v>22.1</v>
-      </c>
-      <c r="V17" s="9">
+      <c r="T17" s="15">
+        <v>15.3</v>
+      </c>
+      <c r="U17" s="15">
+        <v>22</v>
+      </c>
+      <c r="V17" s="15">
         <v>86.01</v>
       </c>
       <c r="W17" s="9"/>
-      <c r="X17" s="9">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Y17" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9">
+      <c r="X17" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z17" s="14">
         <f t="shared" si="7"/>
-        <v>2.7780882352941205</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18">
-        <v>31.4</v>
+        <v>31.299999999999997</v>
       </c>
       <c r="D18">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>98.4</v>
@@ -5092,23 +5096,23 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Turmas</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="8"/>
-        <v>22.1</v>
+        <v>21.900000000000002</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="9"/>
-        <v>34.799999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f>M17-(K18-J18)*2.5</f>
-        <v>12.750000000000011</v>
+        <v>13</v>
       </c>
       <c r="N18" s="10">
         <v>9.5</v>
@@ -5127,38 +5131,38 @@
       <c r="S18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="9">
-        <v>22.1</v>
-      </c>
-      <c r="U18" s="9">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="V18" s="9">
+      <c r="T18" s="15">
+        <v>22</v>
+      </c>
+      <c r="U18" s="15">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="V18" s="15">
         <v>106.39</v>
       </c>
       <c r="W18" s="8"/>
-      <c r="X18" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
+      <c r="X18" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z18" s="14">
         <f t="shared" si="7"/>
-        <v>-1.9999999999953388E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="E19">
         <v>48</v>
@@ -5173,75 +5177,75 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Disciplinas</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="8"/>
-        <v>34.799999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="9"/>
-        <v>40.099999999999994</v>
-      </c>
-      <c r="L19" s="11">
-        <f>(3.8*1+1.6*1.5)/5.4</f>
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="M19" s="13">
+        <v>39.9</v>
+      </c>
+      <c r="L19" s="13">
+        <f>(N18/2.5*1+($U19-$T19-N18/2.5)*1.5)/($U19-$T19)</f>
+        <v>1.1415094339622638</v>
+      </c>
+      <c r="M19" s="12">
         <f>M18-(K19-J19)*2.5</f>
-        <v>-0.49999999999998224</v>
+        <v>-0.24999999999999289</v>
       </c>
       <c r="N19" s="10">
         <v>4</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="2"/>
-        <v>36.105555555555554</v>
-      </c>
-      <c r="P19" s="11">
-        <f>(3.8*0.9+1.6*1.5)/5.4</f>
-        <v>1.0777777777777777</v>
+        <v>38.240566037735839</v>
+      </c>
+      <c r="P19" s="13">
+        <f>(N18/2.5*1+($U19-$T19-N18/2.5)*1.5)/($U19-$T19)</f>
+        <v>1.1415094339622638</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="12"/>
-        <v>57.855555555555554</v>
+        <v>59.990566037735839</v>
       </c>
       <c r="S19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="9">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="U19" s="9">
-        <v>40.1</v>
-      </c>
-      <c r="V19" s="9">
+      <c r="T19" s="15">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="U19" s="15">
+        <v>40</v>
+      </c>
+      <c r="V19" s="15">
         <v>59.98</v>
       </c>
       <c r="W19" s="8"/>
-      <c r="X19" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
+      <c r="X19" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z19" s="14">
         <f t="shared" si="7"/>
-        <v>2.1244444444444426</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="D20">
-        <v>57.3</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="E20">
         <v>55.2</v>
@@ -5256,23 +5260,23 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Aluno</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="8"/>
-        <v>40.099999999999994</v>
+        <v>39.9</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="9"/>
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="L20" s="1">
         <v>1.5</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f t="shared" si="10"/>
-        <v>11.250000000000025</v>
+        <v>11.500000000000014</v>
       </c>
       <c r="N20" s="10">
         <v>16</v>
@@ -5292,45 +5296,45 @@
       <c r="S20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T20" s="9">
-        <v>40.1</v>
-      </c>
-      <c r="U20" s="9">
-        <v>44.8</v>
-      </c>
-      <c r="V20" s="9">
+      <c r="T20" s="15">
+        <v>40</v>
+      </c>
+      <c r="U20" s="15">
+        <v>44.7</v>
+      </c>
+      <c r="V20" s="15">
         <v>82.8</v>
       </c>
       <c r="W20" s="8"/>
-      <c r="X20" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
+      <c r="X20" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>57.3</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="D21">
-        <v>64.400000000000006</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="E21">
         <v>55.2</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>7.1000000000000085</v>
+        <v>7.1000000000000156</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="11"/>
@@ -5338,23 +5342,23 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Áreas</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="8"/>
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="9"/>
-        <v>49.5</v>
+        <v>49.300000000000004</v>
       </c>
       <c r="L21" s="1">
         <v>1.5</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <f t="shared" si="10"/>
-        <v>23.000000000000032</v>
+        <v>23.250000000000021</v>
       </c>
       <c r="N21" s="10">
         <v>28.25</v>
@@ -5373,38 +5377,38 @@
       <c r="S21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="9">
-        <v>44.8</v>
-      </c>
-      <c r="U21" s="9">
-        <v>49.6</v>
-      </c>
-      <c r="V21" s="9">
+      <c r="T21" s="15">
+        <v>44.7</v>
+      </c>
+      <c r="U21" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="V21" s="15">
         <v>82.8</v>
       </c>
       <c r="W21" s="8"/>
-      <c r="X21" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Z21" s="9">
+      <c r="X21" s="14">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>64.400000000000006</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="D22">
-        <v>70.599999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="E22">
         <v>48</v>
@@ -5419,23 +5423,23 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Professores</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="8"/>
-        <v>49.5</v>
+        <v>49.300000000000004</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="9"/>
-        <v>53.6</v>
+        <v>53.400000000000006</v>
       </c>
       <c r="L22" s="1">
         <v>1.5</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <f t="shared" si="10"/>
-        <v>33.250000000000036</v>
+        <v>33.500000000000028</v>
       </c>
       <c r="N22" s="10">
         <v>38.75</v>
@@ -5454,38 +5458,38 @@
       <c r="S22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="9">
-        <v>49.6</v>
-      </c>
-      <c r="U22" s="9">
-        <v>53.7</v>
-      </c>
-      <c r="V22" s="9">
+      <c r="T22" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="U22" s="15">
+        <v>53.6</v>
+      </c>
+      <c r="V22" s="15">
         <v>72</v>
       </c>
       <c r="W22" s="8"/>
-      <c r="X22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Y22" s="9">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Z22" s="9">
+      <c r="X22" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z22" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>70.599999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="D23">
-        <v>76.2</v>
+        <v>76.100000000000009</v>
       </c>
       <c r="E23">
         <v>43.2</v>
@@ -5500,23 +5504,23 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Codificacao Usuários</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="8"/>
-        <v>53.6</v>
+        <v>53.400000000000006</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="9"/>
-        <v>57.300000000000004</v>
+        <v>57.100000000000009</v>
       </c>
       <c r="L23" s="1">
         <v>1.5</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <f t="shared" si="10"/>
-        <v>42.500000000000043</v>
+        <v>42.750000000000036</v>
       </c>
       <c r="N23" s="10">
         <v>48.25</v>
@@ -5535,38 +5539,38 @@
       <c r="S23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="T23" s="9">
-        <v>53.7</v>
-      </c>
-      <c r="U23" s="9">
-        <v>57.4</v>
-      </c>
-      <c r="V23" s="9">
+      <c r="T23" s="15">
+        <v>53.6</v>
+      </c>
+      <c r="U23" s="15">
+        <v>57.3</v>
+      </c>
+      <c r="V23" s="15">
         <v>64.8</v>
       </c>
       <c r="W23" s="8"/>
-      <c r="X23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Y23" s="9">
-        <f t="shared" si="4"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="Z23" s="9">
+      <c r="X23" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24">
-        <v>76.2</v>
+        <v>76.100000000000009</v>
       </c>
       <c r="D24">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5580,24 +5584,24 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Inscrições</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="8"/>
-        <v>57.300000000000004</v>
+        <v>57.100000000000009</v>
       </c>
       <c r="K24" s="1">
         <f>J24+ROUND(Q17*0.13/L24,1)</f>
         <v>67.900000000000006</v>
       </c>
-      <c r="L24" s="14">
-        <f>(((50-N23)/2.5-0.1)*1.5+(U24-T24-((50-N23)/2.5-0.1))*1)/(U24-T24+0.1)</f>
-        <v>1.0181818181818183</v>
-      </c>
-      <c r="M24" s="13">
+      <c r="L24" s="13">
+        <f>((50-N23)/2.5*1.5+($U24-$T24-(50-N23)/2.5)*1)/($U24-$T24)</f>
+        <v>1.0321100917431194</v>
+      </c>
+      <c r="M24" s="12">
         <f>M23+3*2.5-(K24-J24-3)*2.5</f>
-        <v>31.000000000000039</v>
+        <v>30.750000000000043</v>
       </c>
       <c r="N24" s="10">
         <v>24.25</v>
@@ -5614,38 +5618,38 @@
       <c r="S24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="9">
-        <v>57.4</v>
-      </c>
-      <c r="U24" s="9">
-        <v>68.3</v>
-      </c>
-      <c r="V24" s="9">
+      <c r="T24" s="15">
+        <v>57.3</v>
+      </c>
+      <c r="U24" s="15">
+        <v>68.2</v>
+      </c>
+      <c r="V24" s="15">
         <v>0</v>
       </c>
       <c r="W24" s="8"/>
-      <c r="X24" s="9">
-        <f t="shared" si="3"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="Y24" s="9">
-        <f t="shared" si="4"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="Z24" s="9">
+      <c r="X24" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z24" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="D25">
-        <v>97.4</v>
+        <v>97.300000000000011</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5659,7 +5663,7 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Turmas</v>
       </c>
       <c r="J25" s="1">
@@ -5670,13 +5674,13 @@
         <f t="shared" ref="K25:K30" si="13">J25+ROUND(Q18*0.13/L25,1)</f>
         <v>80.400000000000006</v>
       </c>
-      <c r="L25" s="14">
-        <f>((N24/2.5-0.1)*1+(U25-T25-(N24/2.5-0.1))*1.5)/(U25-T25+0.1)</f>
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="M25" s="13">
+      <c r="L25" s="13">
+        <f>(N24/2.5*1+($U25-$T25-N24/2.5)*1.5)/($U25-$T25)</f>
+        <v>1.1088709677419353</v>
+      </c>
+      <c r="M25" s="12">
         <f>M24-(K25-J25)*2.5</f>
-        <v>-0.24999999999996092</v>
+        <v>-0.49999999999995737</v>
       </c>
       <c r="N25" s="10">
         <v>7</v>
@@ -5693,38 +5697,38 @@
       <c r="S25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T25" s="9">
-        <v>68.3</v>
-      </c>
-      <c r="U25" s="9">
-        <v>80.7</v>
-      </c>
-      <c r="V25" s="9">
+      <c r="T25" s="15">
+        <v>68.2</v>
+      </c>
+      <c r="U25" s="15">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="V25" s="15">
         <v>0</v>
       </c>
       <c r="W25" s="8"/>
-      <c r="X25" s="9">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="Y25" s="9">
-        <f t="shared" si="4"/>
-        <v>0.29999999999999716</v>
-      </c>
-      <c r="Z25" s="9">
+      <c r="X25" s="14">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z25" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26">
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26">
-        <v>97.4</v>
+        <v>97.300000000000011</v>
       </c>
       <c r="D26">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5738,7 +5742,7 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Disciplinas</v>
       </c>
       <c r="J26" s="1">
@@ -5747,14 +5751,14 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="13"/>
-        <v>85.4</v>
+        <v>85.600000000000009</v>
       </c>
       <c r="L26" s="1">
         <v>1.5</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <f t="shared" si="10"/>
-        <v>12.250000000000039</v>
+        <v>12.50000000000005</v>
       </c>
       <c r="N26" s="10">
         <v>20.25</v>
@@ -5771,38 +5775,38 @@
       <c r="S26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="9">
-        <v>80.7</v>
-      </c>
-      <c r="U26" s="9">
-        <v>85.9</v>
-      </c>
-      <c r="V26" s="9">
+      <c r="T26" s="15">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="U26" s="15">
+        <v>85.8</v>
+      </c>
+      <c r="V26" s="15">
         <v>0</v>
       </c>
       <c r="W26" s="8"/>
-      <c r="X26" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999716</v>
-      </c>
-      <c r="Y26" s="9">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z26" s="9">
+      <c r="X26" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z26" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="D27">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5816,23 +5820,23 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Aluno</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="8"/>
-        <v>85.4</v>
+        <v>85.600000000000009</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="13"/>
-        <v>92.600000000000009</v>
+        <v>92.800000000000011</v>
       </c>
       <c r="L27" s="1">
         <v>1.5</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <f t="shared" si="10"/>
-        <v>30.250000000000046</v>
+        <v>30.500000000000057</v>
       </c>
       <c r="N27" s="10">
         <v>38.5</v>
@@ -5849,38 +5853,38 @@
       <c r="S27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T27" s="9">
-        <v>85.9</v>
-      </c>
-      <c r="U27" s="9">
-        <v>93.1</v>
-      </c>
-      <c r="V27" s="9">
+      <c r="T27" s="15">
+        <v>85.8</v>
+      </c>
+      <c r="U27" s="15">
+        <v>93</v>
+      </c>
+      <c r="V27" s="15">
         <v>0</v>
       </c>
       <c r="W27" s="8"/>
-      <c r="X27" s="9">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y27" s="9">
-        <f t="shared" si="4"/>
-        <v>0.49999999999998579</v>
-      </c>
-      <c r="Z27" s="9">
+      <c r="X27" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z27" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="D28">
-        <v>118</v>
+        <v>117.9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5894,24 +5898,24 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Áreas</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="8"/>
-        <v>92.600000000000009</v>
+        <v>92.800000000000011</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="13"/>
-        <v>101.2</v>
-      </c>
-      <c r="L28" s="14">
-        <f>(((50-N27)/2.5-0.1)*1.5+(U28-T28-((50-N27)/2.5-0.1))*1)/(U28-T28+0.1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="M28" s="13">
+        <v>101.30000000000001</v>
+      </c>
+      <c r="L28" s="13">
+        <f>((50-N27)/2.5*1.5+($U28-$T28-(50-N27)/2.5)*1)/($U28-$T28)</f>
+        <v>1.2705882352941178</v>
+      </c>
+      <c r="M28" s="12">
         <f t="shared" si="10"/>
-        <v>51.750000000000028</v>
+        <v>51.750000000000057</v>
       </c>
       <c r="N28" s="10">
         <v>40</v>
@@ -5929,38 +5933,38 @@
       <c r="S28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="9">
-        <v>93.1</v>
-      </c>
-      <c r="U28" s="9">
-        <v>101.6</v>
-      </c>
-      <c r="V28" s="9">
+      <c r="T28" s="15">
+        <v>93</v>
+      </c>
+      <c r="U28" s="15">
+        <v>101.5</v>
+      </c>
+      <c r="V28" s="15">
         <v>0</v>
       </c>
       <c r="W28" s="8"/>
-      <c r="X28" s="9">
-        <f t="shared" si="3"/>
-        <v>0.49999999999998579</v>
-      </c>
-      <c r="Y28" s="9">
-        <f t="shared" si="4"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="Z28" s="9">
+      <c r="X28" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z28" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>118</v>
+        <v>117.9</v>
       </c>
       <c r="D29">
-        <v>124.2</v>
+        <v>124.10000000000001</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5974,23 +5978,23 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Professores</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="8"/>
-        <v>101.2</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="13"/>
-        <v>110.60000000000001</v>
+        <v>110.70000000000002</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <f>M28-(K29-J29)*2.5</f>
-        <v>28.250000000000014</v>
+        <v>28.250000000000043</v>
       </c>
       <c r="N29" s="10">
         <v>16.25</v>
@@ -6007,38 +6011,38 @@
       <c r="S29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="9">
-        <v>101.6</v>
-      </c>
-      <c r="U29" s="9">
-        <v>111</v>
-      </c>
-      <c r="V29" s="9">
+      <c r="T29" s="15">
+        <v>101.5</v>
+      </c>
+      <c r="U29" s="15">
+        <v>110.9</v>
+      </c>
+      <c r="V29" s="15">
         <v>0</v>
       </c>
       <c r="W29" s="8"/>
-      <c r="X29" s="9">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="Y29" s="9">
-        <f t="shared" si="4"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="Z29" s="9">
+      <c r="X29" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z29" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26">
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>124.2</v>
+        <v>124.10000000000001</v>
       </c>
       <c r="D30">
-        <v>129.9</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6052,24 +6056,24 @@
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Testes Usuários</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="8"/>
-        <v>110.60000000000001</v>
+        <v>110.70000000000002</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="13"/>
         <v>118.50000000000001</v>
       </c>
-      <c r="L30" s="14">
-        <f>((N29/2.5-0.1)*1+(U30-T30-(N29/2.5-0.1))*1.5)/(U30-T30+0.1)</f>
-        <v>1.0705128205128207</v>
-      </c>
-      <c r="M30" s="13">
+      <c r="L30" s="13">
+        <f>(N29/2.5*1+($U30-$T30-N29/2.5)*1.5)/($U30-$T30)</f>
+        <v>1.0779220779220773</v>
+      </c>
+      <c r="M30" s="12">
         <f>M29-(K30-J30)*2.5</f>
-        <v>8.5</v>
+        <v>8.7500000000000497</v>
       </c>
       <c r="N30" s="10">
         <v>3.25</v>
@@ -6086,25 +6090,25 @@
       <c r="S30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="9">
-        <v>111</v>
-      </c>
-      <c r="U30" s="9">
-        <v>118.7</v>
-      </c>
-      <c r="V30" s="9">
+      <c r="T30" s="15">
+        <v>110.9</v>
+      </c>
+      <c r="U30" s="15">
+        <v>118.6</v>
+      </c>
+      <c r="V30" s="15">
         <v>0</v>
       </c>
       <c r="W30" s="8"/>
-      <c r="X30" s="9">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999147</v>
-      </c>
-      <c r="Y30" s="9">
-        <f t="shared" si="4"/>
-        <v>0.19999999999998863</v>
-      </c>
-      <c r="Z30" s="9">
+      <c r="X30" s="14">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z30" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/data/Simulacao Cenarios.xlsx
+++ b/data/Simulacao Cenarios.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito - Overworking" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gabarito - Exhaustion'!$S$2:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -157,13 +157,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0;\-0.0;\-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,30 +526,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:R30"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K1">
         <v>1.5</v>
       </c>
@@ -557,7 +555,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -605,7 +603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -672,7 +670,7 @@
         <v>-5.0000000000007816E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -739,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -806,7 +804,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -873,7 +871,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -940,7 +938,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>-4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>5.0000000000007816E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1340,7 @@
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>4.9999999999990052E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>-5.000000000002558E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:22">
+    <row r="33" spans="9:22" x14ac:dyDescent="0.25">
       <c r="K33">
         <v>1</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="9:22">
+    <row r="34" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>38</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="9:22">
+    <row r="35" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I35" s="6" t="str">
         <f>B3</f>
         <v>Requisitos Inscrições</v>
@@ -2540,7 +2538,7 @@
         <v>-7.0000000000014495E-3</v>
       </c>
     </row>
-    <row r="36" spans="9:22">
+    <row r="36" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I36" s="6" t="str">
         <f t="shared" ref="I36:I62" si="13">B4</f>
         <v>Requisitos Turmas</v>
@@ -2586,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:22">
+    <row r="37" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I37" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Disciplinas</v>
@@ -2632,7 +2630,7 @@
         <v>-9.9999999999944578E-4</v>
       </c>
     </row>
-    <row r="38" spans="9:22">
+    <row r="38" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I38" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Aluno</v>
@@ -2678,7 +2676,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
     </row>
-    <row r="39" spans="9:22">
+    <row r="39" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I39" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Áreas</v>
@@ -2724,7 +2722,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
     </row>
-    <row r="40" spans="9:22">
+    <row r="40" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I40" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Professores</v>
@@ -2770,7 +2768,7 @@
         <v>-9.9999999999944578E-4</v>
       </c>
     </row>
-    <row r="41" spans="9:22">
+    <row r="41" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I41" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Requisitos Usuários</v>
@@ -2816,7 +2814,7 @@
         <v>4.9999999999998934E-3</v>
       </c>
     </row>
-    <row r="42" spans="9:22">
+    <row r="42" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I42" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Inscrições</v>
@@ -2862,7 +2860,7 @@
         <v>7.0000000000014495E-3</v>
       </c>
     </row>
-    <row r="43" spans="9:22">
+    <row r="43" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I43" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Turmas</v>
@@ -2908,7 +2906,7 @@
         <v>2.0000000000024443E-3</v>
       </c>
     </row>
-    <row r="44" spans="9:22">
+    <row r="44" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I44" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Disciplinas</v>
@@ -2954,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:22">
+    <row r="45" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I45" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Aluno</v>
@@ -3000,7 +2998,7 @@
         <v>6.9999999999978968E-3</v>
       </c>
     </row>
-    <row r="46" spans="9:22">
+    <row r="46" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I46" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Áreas</v>
@@ -3046,7 +3044,7 @@
         <v>6.9999999999978968E-3</v>
       </c>
     </row>
-    <row r="47" spans="9:22">
+    <row r="47" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I47" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Professores</v>
@@ -3092,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:22">
+    <row r="48" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I48" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Projeto Usuários</v>
@@ -3138,7 +3136,7 @@
         <v>-5.0000000000007816E-3</v>
       </c>
     </row>
-    <row r="49" spans="9:22">
+    <row r="49" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I49" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Inscrições</v>
@@ -3184,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:22">
+    <row r="50" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I50" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Turmas</v>
@@ -3230,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:22">
+    <row r="51" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I51" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Disciplinas</v>
@@ -3276,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:22">
+    <row r="52" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I52" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Aluno</v>
@@ -3322,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:22">
+    <row r="53" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I53" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Áreas</v>
@@ -3368,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:22">
+    <row r="54" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I54" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Professores</v>
@@ -3414,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:22">
+    <row r="55" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I55" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Codificacao Usuários</v>
@@ -3460,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:22">
+    <row r="56" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I56" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Inscrições</v>
@@ -3504,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:22">
+    <row r="57" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I57" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Turmas</v>
@@ -3548,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:22">
+    <row r="58" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I58" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Disciplinas</v>
@@ -3592,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:22">
+    <row r="59" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I59" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Aluno</v>
@@ -3636,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:22">
+    <row r="60" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I60" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Áreas</v>
@@ -3680,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:22">
+    <row r="61" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I61" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Professores</v>
@@ -3724,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:22">
+    <row r="62" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I62" s="6" t="str">
         <f t="shared" si="13"/>
         <v>Testes Usuários</v>
@@ -3778,28 +3776,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" customWidth="1"/>
     <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -3857,7 +3853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -3937,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -4018,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -4180,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -4261,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -4423,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -4585,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -4747,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -4828,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -4909,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -5073,7 +5069,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -5154,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -5237,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -5319,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -5400,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -5481,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -5562,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5641,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -5720,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -5798,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -5956,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -6034,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>

--- a/data/Simulacao Cenarios.xlsx
+++ b/data/Simulacao Cenarios.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito - Overworking" sheetId="2" r:id="rId1"/>
     <sheet name="Gabarito - Exhaustion" sheetId="3" r:id="rId2"/>
+    <sheet name="Gabarito - ErrorGeneration" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Gabarito - ErrorGeneration'!$S$2:$V$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gabarito - Exhaustion'!$S$2:$V$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
   <si>
     <t>Requisitos Usuários</t>
   </si>
@@ -153,6 +155,18 @@
   <si>
     <t>calc</t>
   </si>
+  <si>
+    <t>INH</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -254,6 +268,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3779,7 +3796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6121,4 +6138,2357 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>1.6</v>
+      </c>
+      <c r="E3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F30" si="0">D3-C3</f>
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G9" si="1">E3</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6" t="str">
+        <f>B3</f>
+        <v>Requisitos Inscrições</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f>J3+F3/$K$1</f>
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>G3*$L$1</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="M3" s="1">
+        <f>L3*0.85</f>
+        <v>7.3355000000000006</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>L3</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1.5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X30" si="2">T3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y30" si="3">U3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>V3-Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1.6</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>13.1</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="6" t="str">
+        <f t="shared" ref="I4:I30" si="4">B4</f>
+        <v>Requisitos Turmas</v>
+      </c>
+      <c r="J4" s="1">
+        <f>K3</f>
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K23" si="5">J4+F4/$K$1</f>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L23" si="6">G4*$L$1</f>
+        <v>13.1</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M9" si="7">L4*0.85</f>
+        <v>11.135</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q9" si="8">L4</f>
+        <v>13.1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" ref="Z4:Z30" si="9">V4-Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>5.2</v>
+      </c>
+      <c r="E5">
+        <v>6.39</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000005</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>6.39</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Requisitos Disciplinas</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J30" si="10">K4</f>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="6"/>
+        <v>6.39</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="7"/>
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="8"/>
+        <v>6.39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V5" s="1">
+        <v>6.39</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5.2</v>
+      </c>
+      <c r="D6">
+        <v>6.6</v>
+      </c>
+      <c r="E6">
+        <v>7.35</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>7.35</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Requisitos Aluno</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="10"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="6"/>
+        <v>7.35</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="7"/>
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="8"/>
+        <v>7.35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U6">
+        <v>6.5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6.6</v>
+      </c>
+      <c r="D7">
+        <v>7.9</v>
+      </c>
+      <c r="E7">
+        <v>7.35</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.35</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Requisitos Áreas</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="10"/>
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>7.8</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="6"/>
+        <v>7.35</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="7"/>
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="8"/>
+        <v>7.35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>6.5</v>
+      </c>
+      <c r="U7">
+        <v>7.8</v>
+      </c>
+      <c r="V7" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7.9</v>
+      </c>
+      <c r="D8">
+        <v>9.1</v>
+      </c>
+      <c r="E8">
+        <v>6.39</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>6.39</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Requisitos Professores</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="10"/>
+        <v>7.8</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="6"/>
+        <v>6.39</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="7"/>
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="8"/>
+        <v>6.39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>7.8</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8" s="1">
+        <v>6.39</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9.1</v>
+      </c>
+      <c r="D9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E9">
+        <v>5.75</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Requisitos Usuários</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>10.1</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="6"/>
+        <v>5.75</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="7"/>
+        <v>4.8875000000000002</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="8"/>
+        <v>5.75</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>10.1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D10">
+        <v>12.2</v>
+      </c>
+      <c r="E10">
+        <v>19.57</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G23" si="11">E10-E3</f>
+        <v>10.94</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Inscrições</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="10"/>
+        <v>10.1</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>12.1</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="6"/>
+        <v>10.94</v>
+      </c>
+      <c r="M10" s="1">
+        <f>M3+L10*0.85</f>
+        <v>16.634499999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <f>M3</f>
+        <v>7.3355000000000006</v>
+      </c>
+      <c r="O10" s="16">
+        <f>N10/Q3</f>
+        <v>0.85</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(M10-M3)*(4.35-1)</f>
+        <v>31.151649999999997</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>L10+Q3+P10</f>
+        <v>50.721649999999997</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10">
+        <v>10.1</v>
+      </c>
+      <c r="U10">
+        <v>12.1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="9"/>
+        <v>5.5283500000000032</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>12.2</v>
+      </c>
+      <c r="D11">
+        <v>15.3</v>
+      </c>
+      <c r="E11">
+        <v>29.72</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="11"/>
+        <v>16.619999999999997</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Turmas</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="10"/>
+        <v>12.1</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="5"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
+        <v>16.619999999999997</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M16" si="12">M4+L11*0.85</f>
+        <v>25.261999999999997</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N23" si="13">M4</f>
+        <v>11.135</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" ref="O11:O30" si="14">N11/Q4</f>
+        <v>0.85</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P16" si="15">(M11-M4)*(4.35-1)</f>
+        <v>47.325449999999982</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q23" si="16">L11+Q4+P11</f>
+        <v>77.045449999999988</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11">
+        <v>12.1</v>
+      </c>
+      <c r="U11">
+        <v>15.2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>85.41</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="9"/>
+        <v>8.3645500000000084</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>15.3</v>
+      </c>
+      <c r="D12">
+        <v>16.8</v>
+      </c>
+      <c r="E12">
+        <v>14.5</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="11"/>
+        <v>8.11</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Disciplinas</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="10"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
+        <v>8.11</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="12"/>
+        <v>12.324999999999999</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="13"/>
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="15"/>
+        <v>23.093224999999997</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="16"/>
+        <v>37.593224999999997</v>
+      </c>
+      <c r="S12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <v>15.2</v>
+      </c>
+      <c r="U12">
+        <v>16.7</v>
+      </c>
+      <c r="V12" s="1">
+        <v>41.66</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0667749999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>16.8</v>
+      </c>
+      <c r="D13">
+        <v>18.5</v>
+      </c>
+      <c r="E13">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3200000000000021</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Aluno</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="10"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="6"/>
+        <v>9.3200000000000021</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="12"/>
+        <v>14.169500000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="13"/>
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="O13" s="16">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="15"/>
+        <v>26.538700000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="16"/>
+        <v>43.208700000000007</v>
+      </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>16.7</v>
+      </c>
+      <c r="U13">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V13" s="1">
+        <v>47.91</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7012999999999892</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>18.5</v>
+      </c>
+      <c r="D14">
+        <v>20.2</v>
+      </c>
+      <c r="E14">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3200000000000021</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Áreas</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="10"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="5"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
+        <v>9.3200000000000021</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="12"/>
+        <v>14.169500000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="13"/>
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="15"/>
+        <v>26.538700000000002</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="16"/>
+        <v>43.208700000000007</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U14">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="V14" s="1">
+        <v>47.91</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7012999999999892</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>20.2</v>
+      </c>
+      <c r="D15">
+        <v>21.7</v>
+      </c>
+      <c r="E15">
+        <v>14.5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="11"/>
+        <v>8.11</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Professores</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="10"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="5"/>
+        <v>21.6</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="6"/>
+        <v>8.11</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="12"/>
+        <v>12.324999999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="13"/>
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="O15" s="16">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="15"/>
+        <v>23.093224999999997</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="16"/>
+        <v>37.593224999999997</v>
+      </c>
+      <c r="S15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="U15">
+        <v>21.6</v>
+      </c>
+      <c r="V15" s="1">
+        <v>41.66</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0667749999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>21.7</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>13.05</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="11"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Projeto Usuários</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="10"/>
+        <v>21.6</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="5"/>
+        <v>22.900000000000002</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="6"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="12"/>
+        <v>11.092500000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="13"/>
+        <v>4.8875000000000002</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="15"/>
+        <v>20.786750000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="16"/>
+        <v>33.836750000000002</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>21.6</v>
+      </c>
+      <c r="U16">
+        <v>22.9</v>
+      </c>
+      <c r="V16" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6632499999999979</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>31.4</v>
+      </c>
+      <c r="E17">
+        <v>64.8</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="11"/>
+        <v>45.23</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Inscrições</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="10"/>
+        <v>22.900000000000002</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="5"/>
+        <v>31.3</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="6"/>
+        <v>45.23</v>
+      </c>
+      <c r="M17" s="1">
+        <f>M10+L17*0.326</f>
+        <v>31.379480000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="13"/>
+        <v>16.634499999999999</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="14"/>
+        <v>0.3279566023581646</v>
+      </c>
+      <c r="P17" s="1">
+        <f>(M17-M10)*(1.325-1)</f>
+        <v>4.7921184999999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="16"/>
+        <v>100.7437685</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17">
+        <v>22.9</v>
+      </c>
+      <c r="U17">
+        <v>31.3</v>
+      </c>
+      <c r="V17" s="1">
+        <v>116.17</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="9"/>
+        <v>15.4262315</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>31.4</v>
+      </c>
+      <c r="D18">
+        <v>44.1</v>
+      </c>
+      <c r="E18">
+        <v>98.4</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="11"/>
+        <v>68.680000000000007</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Turmas</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="10"/>
+        <v>31.3</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="6"/>
+        <v>68.680000000000007</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ref="M18:M23" si="17">M11+L18*0.326</f>
+        <v>47.651679999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="13"/>
+        <v>25.261999999999997</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="14"/>
+        <v>0.32788438512592244</v>
+      </c>
+      <c r="P18" s="1">
+        <f>(M18-M11)*(1.325-1)</f>
+        <v>7.2766459999999995</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="16"/>
+        <v>153.00209599999999</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18">
+        <v>31.3</v>
+      </c>
+      <c r="U18">
+        <v>44</v>
+      </c>
+      <c r="V18" s="1">
+        <v>176.41</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="9"/>
+        <v>23.407904000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>44.1</v>
+      </c>
+      <c r="D19">
+        <v>50.2</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="11"/>
+        <v>33.5</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Disciplinas</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="5"/>
+        <v>50.1</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="6"/>
+        <v>33.5</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="17"/>
+        <v>23.246000000000002</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="13"/>
+        <v>12.324999999999999</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="14"/>
+        <v>0.32785162752065033</v>
+      </c>
+      <c r="P19" s="1">
+        <f>(M19-M12)*(1.325-1)</f>
+        <v>3.5493250000000005</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="16"/>
+        <v>74.642549999999986</v>
+      </c>
+      <c r="S19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>44</v>
+      </c>
+      <c r="U19">
+        <v>50.1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>86.05</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="9"/>
+        <v>11.407450000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>50.2</v>
+      </c>
+      <c r="D20">
+        <v>57.3</v>
+      </c>
+      <c r="E20">
+        <v>55.2</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="11"/>
+        <v>38.53</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Aluno</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="10"/>
+        <v>50.1</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="6"/>
+        <v>38.53</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="17"/>
+        <v>26.73028</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="13"/>
+        <v>14.169500000000001</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="14"/>
+        <v>0.32793164339589015</v>
+      </c>
+      <c r="P20" s="1">
+        <f>(M20-M13)*(1.325-1)</f>
+        <v>4.0822534999999993</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="16"/>
+        <v>85.820953500000002</v>
+      </c>
+      <c r="S20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20">
+        <v>50.1</v>
+      </c>
+      <c r="U20">
+        <v>57.2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>98.96</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="9"/>
+        <v>13.139046499999992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>57.3</v>
+      </c>
+      <c r="D21">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="E21">
+        <v>55.2</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000085</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="11"/>
+        <v>38.53</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Áreas</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="10"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
+        <v>64.300000000000011</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
+        <v>38.53</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="17"/>
+        <v>26.73028</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="13"/>
+        <v>14.169500000000001</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="14"/>
+        <v>0.32793164339589015</v>
+      </c>
+      <c r="P21" s="1">
+        <f>(M21-M14)*(1.325-1)</f>
+        <v>4.0822534999999993</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="16"/>
+        <v>85.820953500000002</v>
+      </c>
+      <c r="S21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>57.2</v>
+      </c>
+      <c r="U21">
+        <v>64.3</v>
+      </c>
+      <c r="V21" s="1">
+        <v>98.96</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="9"/>
+        <v>13.139046499999992</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D22">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E22">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="11"/>
+        <v>33.5</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Professores</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="10"/>
+        <v>64.300000000000011</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="5"/>
+        <v>70.5</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="6"/>
+        <v>33.5</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="17"/>
+        <v>23.246000000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="13"/>
+        <v>12.324999999999999</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="14"/>
+        <v>0.32785162752065033</v>
+      </c>
+      <c r="P22" s="1">
+        <f>(M22-M15)*(1.325-1)</f>
+        <v>3.5493250000000005</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="16"/>
+        <v>74.642549999999986</v>
+      </c>
+      <c r="S22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>64.3</v>
+      </c>
+      <c r="U22">
+        <v>70.5</v>
+      </c>
+      <c r="V22" s="1">
+        <v>86.05</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="9"/>
+        <v>11.407450000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D23">
+        <v>76.2</v>
+      </c>
+      <c r="E23">
+        <v>43.2</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000085</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="11"/>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Codificacao Usuários</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="10"/>
+        <v>70.5</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="5"/>
+        <v>76.100000000000009</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="6"/>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="17"/>
+        <v>20.921400000000002</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="13"/>
+        <v>11.092500000000001</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="14"/>
+        <v>0.3278240374740482</v>
+      </c>
+      <c r="P23" s="1">
+        <f>(M23-M16)*(1.325-1)</f>
+        <v>3.1943924999999997</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="16"/>
+        <v>67.181142500000007</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>70.5</v>
+      </c>
+      <c r="U23">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="V23" s="1">
+        <v>77.45</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="9"/>
+        <v>10.268857499999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>76.2</v>
+      </c>
+      <c r="D24">
+        <v>84.6</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999915</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Inscrições</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="10"/>
+        <v>76.100000000000009</v>
+      </c>
+      <c r="K24" s="1">
+        <f>J24+Q17*0.13/$K$1</f>
+        <v>89.196689905000014</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U24">
+        <v>91.2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0033100949999891</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>84.6</v>
+      </c>
+      <c r="D25">
+        <v>97.4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>12.800000000000011</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Turmas</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="10"/>
+        <v>89.196689905000014</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ref="K25:K30" si="18">J25+Q18*0.13/$K$1</f>
+        <v>109.08696238500002</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>91.2</v>
+      </c>
+      <c r="U25">
+        <v>114.1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0033100949999891</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0130376149999734</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>97.4</v>
+      </c>
+      <c r="D26">
+        <v>103.6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Disciplinas</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="10"/>
+        <v>109.08696238500002</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="18"/>
+        <v>118.79049388500002</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26">
+        <v>114.1</v>
+      </c>
+      <c r="U26">
+        <v>125.3</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0130376149999734</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5095061149999793</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>103.6</v>
+      </c>
+      <c r="D27">
+        <v>110.8</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Aluno</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="10"/>
+        <v>118.79049388500002</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="18"/>
+        <v>129.94721784000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <v>125.3</v>
+      </c>
+      <c r="U27">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5095061149999793</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2527821599999811</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>110.8</v>
+      </c>
+      <c r="D28">
+        <v>118</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Áreas</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="10"/>
+        <v>129.94721784000001</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="18"/>
+        <v>141.103941795</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="U28">
+        <v>151</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2527821599999811</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="3"/>
+        <v>9.8960582050000028</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>118</v>
+      </c>
+      <c r="D29">
+        <v>124.2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Professores</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="10"/>
+        <v>141.103941795</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="18"/>
+        <v>150.80747329499999</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>151</v>
+      </c>
+      <c r="U29">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8960582050000028</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="3"/>
+        <v>11.392526704999995</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>124.2</v>
+      </c>
+      <c r="D30">
+        <v>129.9</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Testes Usuários</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="10"/>
+        <v>150.80747329499999</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="18"/>
+        <v>159.54102182</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="U30">
+        <v>172.3</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="2"/>
+        <v>11.392526704999995</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="3"/>
+        <v>12.758978180000014</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="S2:V30">
+    <sortState ref="S3:V30">
+      <sortCondition ref="T2:T30"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Simulacao Cenarios.xlsx
+++ b/data/Simulacao Cenarios.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcio Barros\Documents\GitHub\Hector\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="2"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Gabarito - ErrorGeneration'!$S$2:$V$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gabarito - Exhaustion'!$S$2:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -541,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6144,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,7 +7418,7 @@
         <v>0.3279566023581646</v>
       </c>
       <c r="P17" s="1">
-        <f>(M17-M10)*(1.325-1)</f>
+        <f t="shared" ref="P17:P23" si="17">(M17-M10)*(1.325-1)</f>
         <v>4.7921184999999999</v>
       </c>
       <c r="Q17" s="1">
@@ -7484,7 +7489,7 @@
         <v>68.680000000000007</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" ref="M18:M23" si="17">M11+L18*0.326</f>
+        <f t="shared" ref="M18:M23" si="18">M11+L18*0.326</f>
         <v>47.651679999999999</v>
       </c>
       <c r="N18" s="1">
@@ -7496,7 +7501,7 @@
         <v>0.32788438512592244</v>
       </c>
       <c r="P18" s="1">
-        <f>(M18-M11)*(1.325-1)</f>
+        <f t="shared" si="17"/>
         <v>7.2766459999999995</v>
       </c>
       <c r="Q18" s="1">
@@ -7567,7 +7572,7 @@
         <v>33.5</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.246000000000002</v>
       </c>
       <c r="N19" s="1">
@@ -7579,7 +7584,7 @@
         <v>0.32785162752065033</v>
       </c>
       <c r="P19" s="1">
-        <f>(M19-M12)*(1.325-1)</f>
+        <f t="shared" si="17"/>
         <v>3.5493250000000005</v>
       </c>
       <c r="Q19" s="1">
@@ -7650,7 +7655,7 @@
         <v>38.53</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26.73028</v>
       </c>
       <c r="N20" s="1">
@@ -7662,7 +7667,7 @@
         <v>0.32793164339589015</v>
       </c>
       <c r="P20" s="1">
-        <f>(M20-M13)*(1.325-1)</f>
+        <f t="shared" si="17"/>
         <v>4.0822534999999993</v>
       </c>
       <c r="Q20" s="1">
@@ -7733,7 +7738,7 @@
         <v>38.53</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26.73028</v>
       </c>
       <c r="N21" s="1">
@@ -7745,7 +7750,7 @@
         <v>0.32793164339589015</v>
       </c>
       <c r="P21" s="1">
-        <f>(M21-M14)*(1.325-1)</f>
+        <f t="shared" si="17"/>
         <v>4.0822534999999993</v>
       </c>
       <c r="Q21" s="1">
@@ -7816,7 +7821,7 @@
         <v>33.5</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.246000000000002</v>
       </c>
       <c r="N22" s="1">
@@ -7828,7 +7833,7 @@
         <v>0.32785162752065033</v>
       </c>
       <c r="P22" s="1">
-        <f>(M22-M15)*(1.325-1)</f>
+        <f t="shared" si="17"/>
         <v>3.5493250000000005</v>
       </c>
       <c r="Q22" s="1">
@@ -7899,7 +7904,7 @@
         <v>30.150000000000002</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.921400000000002</v>
       </c>
       <c r="N23" s="1">
@@ -7911,7 +7916,7 @@
         <v>0.3278240374740482</v>
       </c>
       <c r="P23" s="1">
-        <f>(M23-M16)*(1.325-1)</f>
+        <f t="shared" si="17"/>
         <v>3.1943924999999997</v>
       </c>
       <c r="Q23" s="1">
@@ -8050,7 +8055,7 @@
         <v>89.196689905000014</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K30" si="18">J25+Q18*0.13/$K$1</f>
+        <f t="shared" ref="K25:K30" si="19">J25+Q18*0.13/$K$1</f>
         <v>109.08696238500002</v>
       </c>
       <c r="L25" s="1">
@@ -8127,7 +8132,7 @@
         <v>109.08696238500002</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>118.79049388500002</v>
       </c>
       <c r="L26" s="1">
@@ -8204,7 +8209,7 @@
         <v>118.79049388500002</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>129.94721784000001</v>
       </c>
       <c r="L27" s="1">
@@ -8281,7 +8286,7 @@
         <v>129.94721784000001</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>141.103941795</v>
       </c>
       <c r="L28" s="1">
@@ -8358,7 +8363,7 @@
         <v>141.103941795</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>150.80747329499999</v>
       </c>
       <c r="L29" s="1">
@@ -8435,7 +8440,7 @@
         <v>150.80747329499999</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>159.54102182</v>
       </c>
       <c r="L30" s="1">

--- a/data/Simulacao Cenarios.xlsx
+++ b/data/Simulacao Cenarios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcio Barros\Documents\GitHub\Hector\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" activeTab="2"/>
   </bookViews>
@@ -17,10 +12,10 @@
     <sheet name="Gabarito - ErrorGeneration" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Gabarito - ErrorGeneration'!$S$2:$V$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Gabarito - ErrorGeneration'!$V$2:$Y$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gabarito - Exhaustion'!$S$2:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="52">
   <si>
     <t>Requisitos Usuários</t>
   </si>
@@ -161,16 +156,31 @@
     <t>calc</t>
   </si>
   <si>
-    <t>INH</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
     <t>NE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>INAE</t>
+  </si>
+  <si>
+    <t>INBG</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ACAE</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>ACBG</t>
   </si>
 </sst>
 </file>
@@ -252,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -274,6 +284,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6147,10 +6158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z30"/>
+  <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6158,11 +6169,11 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="K1">
         <v>1</v>
       </c>
@@ -6170,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -6197,37 +6208,46 @@
         <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -6269,44 +6289,56 @@
         <v>7.3355000000000006</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
         <f>L3</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="S3" t="s">
+      <c r="O3" s="1">
+        <f>M3</f>
+        <v>7.3355000000000006</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <f>IF(P3&gt;0,Q3/P3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <f>L3</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="V3" t="s">
         <v>24</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>1.5</v>
       </c>
-      <c r="V3" s="1">
+      <c r="Y3" s="1">
         <v>8.6300000000000008</v>
       </c>
-      <c r="X3" s="1">
-        <f t="shared" ref="X3:X30" si="2">T3-J3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y30" si="3">U3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <f>V3-Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA30" si="2">W3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB30" si="3">X3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>Y3-T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -6349,44 +6381,56 @@
         <v>11.135</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0</v>
+        <f t="shared" ref="N4:O30" si="8">L4</f>
+        <v>13.1</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="8"/>
+        <v>11.135</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q9" si="8">L4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
+        <f t="shared" ref="R4:R23" si="9">IF(P4&gt;0,Q4/P4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <f t="shared" ref="T4:T9" si="10">L4</f>
         <v>13.1</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>20</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>1.5</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="V4" s="1">
+      <c r="Y4" s="1">
         <v>13.1</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AA4" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AB4" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z30" si="9">V4-Q4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1">
+        <f t="shared" ref="AC4:AC30" si="11">Y4-T4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -6413,7 +6457,7 @@
         <v>Requisitos Disciplinas</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J30" si="10">K4</f>
+        <f t="shared" ref="J5:J30" si="12">K4</f>
         <v>3.9999999999999996</v>
       </c>
       <c r="K5" s="1">
@@ -6429,44 +6473,56 @@
         <v>5.4314999999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
         <f t="shared" si="8"/>
         <v>6.39</v>
       </c>
-      <c r="S5" t="s">
+      <c r="O5" s="1">
+        <f t="shared" si="8"/>
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <f t="shared" si="10"/>
+        <v>6.39</v>
+      </c>
+      <c r="V5" t="s">
         <v>16</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>4</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1">
         <v>6.39</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AA5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC5" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -6493,7 +6549,7 @@
         <v>Requisitos Aluno</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="K6" s="1">
@@ -6509,44 +6565,56 @@
         <v>6.2474999999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
         <f t="shared" si="8"/>
         <v>7.35</v>
       </c>
-      <c r="S6" t="s">
+      <c r="O6" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" si="10"/>
+        <v>7.35</v>
+      </c>
+      <c r="V6" t="s">
         <v>12</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>6.5</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>7.35</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC6" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -6573,7 +6641,7 @@
         <v>Requisitos Áreas</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.4999999999999991</v>
       </c>
       <c r="K7" s="1">
@@ -6589,44 +6657,56 @@
         <v>6.2474999999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
         <f t="shared" si="8"/>
         <v>7.35</v>
       </c>
-      <c r="S7" t="s">
+      <c r="O7" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <f t="shared" si="10"/>
+        <v>7.35</v>
+      </c>
+      <c r="V7" t="s">
         <v>8</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>6.5</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>7.8</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Y7" s="1">
         <v>7.35</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AA7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC7" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -6653,7 +6733,7 @@
         <v>Requisitos Professores</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.8</v>
       </c>
       <c r="K8" s="1">
@@ -6669,44 +6749,56 @@
         <v>5.4314999999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
         <f t="shared" si="8"/>
         <v>6.39</v>
       </c>
-      <c r="S8" t="s">
+      <c r="O8" s="1">
+        <f t="shared" si="8"/>
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <f t="shared" si="10"/>
+        <v>6.39</v>
+      </c>
+      <c r="V8" t="s">
         <v>4</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>7.8</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>9</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Y8" s="1">
         <v>6.39</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AA8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC8" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +6825,7 @@
         <v>Requisitos Usuários</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="K9" s="1">
@@ -6749,44 +6841,56 @@
         <v>4.8875000000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
         <f t="shared" si="8"/>
         <v>5.75</v>
       </c>
-      <c r="S9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="O9" s="1">
+        <f t="shared" si="8"/>
+        <v>4.8875000000000002</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <f t="shared" si="10"/>
+        <v>5.75</v>
+      </c>
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>9</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>10.1</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <v>5.75</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC9" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -6804,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10:G23" si="11">E10-E3</f>
+        <f t="shared" ref="G10:G23" si="13">E10-E3</f>
         <v>10.94</v>
       </c>
       <c r="H10" s="3"/>
@@ -6813,7 +6917,7 @@
         <v>Projeto Inscrições</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.1</v>
       </c>
       <c r="K10" s="1">
@@ -6825,51 +6929,63 @@
         <v>10.94</v>
       </c>
       <c r="M10" s="1">
-        <f>M3+L10*0.85</f>
+        <f>L10*0.85</f>
+        <v>9.2989999999999995</v>
+      </c>
+      <c r="N10" s="1">
+        <f>L10+N3</f>
+        <v>19.57</v>
+      </c>
+      <c r="O10" s="1">
+        <f>M10+O3</f>
         <v>16.634499999999999</v>
       </c>
-      <c r="N10" s="1">
-        <f>M3</f>
+      <c r="P10" s="1">
+        <f>N3</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>O3</f>
         <v>7.3355000000000006</v>
       </c>
-      <c r="O10" s="16">
-        <f>N10/Q3</f>
+      <c r="R10" s="16">
+        <f t="shared" si="9"/>
         <v>0.85</v>
       </c>
-      <c r="P10" s="1">
+      <c r="S10" s="17">
         <f>(M10-M3)*(4.35-1)</f>
-        <v>31.151649999999997</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>L10+Q3+P10</f>
-        <v>50.721649999999997</v>
-      </c>
-      <c r="S10" t="s">
+        <v>6.5777249999999956</v>
+      </c>
+      <c r="T10" s="17">
+        <f>L10+T3+S10</f>
+        <v>26.147724999999994</v>
+      </c>
+      <c r="V10" t="s">
         <v>25</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>10.1</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>12.1</v>
       </c>
-      <c r="V10" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AB10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="9"/>
-        <v>5.5283500000000032</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC10" s="1">
+        <f t="shared" si="11"/>
+        <v>-6.5777249999999938</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -6887,7 +7003,7 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16.619999999999997</v>
       </c>
       <c r="H11" s="3"/>
@@ -6896,7 +7012,7 @@
         <v>Projeto Turmas</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.1</v>
       </c>
       <c r="K11" s="1">
@@ -6908,51 +7024,63 @@
         <v>16.619999999999997</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" ref="M11:M16" si="12">M4+L11*0.85</f>
+        <f t="shared" ref="M11:M16" si="14">L11*0.85</f>
+        <v>14.126999999999997</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:O23" si="15">L11+N4</f>
+        <v>29.72</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="15"/>
         <v>25.261999999999997</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" ref="N11:N23" si="13">M4</f>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:Q23" si="16">N4</f>
+        <v>13.1</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="16"/>
         <v>11.135</v>
       </c>
-      <c r="O11" s="16">
-        <f t="shared" ref="O11:O30" si="14">N11/Q4</f>
+      <c r="R11" s="16">
+        <f t="shared" si="9"/>
         <v>0.85</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11:P16" si="15">(M11-M4)*(4.35-1)</f>
-        <v>47.325449999999982</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q23" si="16">L11+Q4+P11</f>
-        <v>77.045449999999988</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="S11" s="17">
+        <f t="shared" ref="S11:S16" si="17">(M11-M4)*(4.35-1)</f>
+        <v>10.02319999999999</v>
+      </c>
+      <c r="T11" s="17">
+        <f t="shared" ref="T11:T23" si="18">L11+T4+S11</f>
+        <v>39.743199999999987</v>
+      </c>
+      <c r="V11" t="s">
         <v>21</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>12.1</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>15.2</v>
       </c>
-      <c r="V11" s="1">
-        <v>85.41</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
+        <v>29.72</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="9"/>
-        <v>8.3645500000000084</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC11" s="1">
+        <f t="shared" si="11"/>
+        <v>-10.023199999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -6970,7 +7098,7 @@
         <v>1.5</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.11</v>
       </c>
       <c r="H12" s="3"/>
@@ -6979,7 +7107,7 @@
         <v>Projeto Disciplinas</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15.200000000000001</v>
       </c>
       <c r="K12" s="1">
@@ -6991,51 +7119,63 @@
         <v>8.11</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>6.8934999999999995</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="15"/>
+        <v>14.5</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="15"/>
         <v>12.324999999999999</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="13"/>
-        <v>5.4314999999999998</v>
-      </c>
-      <c r="O12" s="16">
-        <f t="shared" si="14"/>
-        <v>0.85</v>
-      </c>
       <c r="P12" s="1">
-        <f t="shared" si="15"/>
-        <v>23.093224999999997</v>
+        <f t="shared" si="16"/>
+        <v>6.39</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="16"/>
-        <v>37.593224999999997</v>
-      </c>
-      <c r="S12" t="s">
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" si="17"/>
+        <v>4.8976999999999986</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" si="18"/>
+        <v>19.3977</v>
+      </c>
+      <c r="V12" t="s">
         <v>17</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>15.2</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>16.7</v>
       </c>
-      <c r="V12" s="1">
-        <v>41.66</v>
-      </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AA12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AB12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0667749999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC12" s="1">
+        <f t="shared" si="11"/>
+        <v>-4.8977000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -7053,7 +7193,7 @@
         <v>1.6999999999999993</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.3200000000000021</v>
       </c>
       <c r="H13" s="3"/>
@@ -7062,7 +7202,7 @@
         <v>Projeto Aluno</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16.700000000000003</v>
       </c>
       <c r="K13" s="1">
@@ -7074,51 +7214,63 @@
         <v>9.3200000000000021</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>7.9220000000000015</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="15"/>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="15"/>
         <v>14.169500000000001</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="13"/>
-        <v>6.2474999999999996</v>
-      </c>
-      <c r="O13" s="16">
-        <f t="shared" si="14"/>
-        <v>0.85</v>
-      </c>
       <c r="P13" s="1">
-        <f t="shared" si="15"/>
-        <v>26.538700000000002</v>
+        <f t="shared" si="16"/>
+        <v>7.35</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="16"/>
-        <v>43.208700000000007</v>
-      </c>
-      <c r="S13" t="s">
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="17"/>
+        <v>5.6095750000000058</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="18"/>
+        <v>22.279575000000008</v>
+      </c>
+      <c r="V13" t="s">
         <v>13</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>16.7</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <v>18.399999999999999</v>
       </c>
-      <c r="V13" s="1">
-        <v>47.91</v>
-      </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AA13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="9"/>
-        <v>4.7012999999999892</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC13" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.6095750000000066</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -7136,7 +7288,7 @@
         <v>1.6999999999999993</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.3200000000000021</v>
       </c>
       <c r="H14" s="3"/>
@@ -7145,7 +7297,7 @@
         <v>Projeto Áreas</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.400000000000002</v>
       </c>
       <c r="K14" s="1">
@@ -7157,51 +7309,63 @@
         <v>9.3200000000000021</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>7.9220000000000015</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="15"/>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="15"/>
         <v>14.169500000000001</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="13"/>
-        <v>6.2474999999999996</v>
-      </c>
-      <c r="O14" s="16">
-        <f t="shared" si="14"/>
-        <v>0.85</v>
-      </c>
       <c r="P14" s="1">
-        <f t="shared" si="15"/>
-        <v>26.538700000000002</v>
+        <f t="shared" si="16"/>
+        <v>7.35</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="16"/>
-        <v>43.208700000000007</v>
-      </c>
-      <c r="S14" t="s">
+        <v>6.2474999999999996</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="17"/>
+        <v>5.6095750000000058</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="18"/>
+        <v>22.279575000000008</v>
+      </c>
+      <c r="V14" t="s">
         <v>9</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>18.399999999999999</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <v>20.100000000000001</v>
       </c>
-      <c r="V14" s="1">
-        <v>47.91</v>
-      </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AA14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AB14" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="1">
-        <f t="shared" si="9"/>
-        <v>4.7012999999999892</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC14" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.6095750000000066</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -7219,7 +7383,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.11</v>
       </c>
       <c r="H15" s="3"/>
@@ -7228,7 +7392,7 @@
         <v>Projeto Professores</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.100000000000001</v>
       </c>
       <c r="K15" s="1">
@@ -7240,51 +7404,63 @@
         <v>8.11</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>6.8934999999999995</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="15"/>
+        <v>14.5</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="15"/>
         <v>12.324999999999999</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="13"/>
-        <v>5.4314999999999998</v>
-      </c>
-      <c r="O15" s="16">
-        <f t="shared" si="14"/>
-        <v>0.85</v>
-      </c>
       <c r="P15" s="1">
-        <f t="shared" si="15"/>
-        <v>23.093224999999997</v>
+        <f t="shared" si="16"/>
+        <v>6.39</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="16"/>
-        <v>37.593224999999997</v>
-      </c>
-      <c r="S15" t="s">
+        <v>5.4314999999999998</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="17"/>
+        <v>4.8976999999999986</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="18"/>
+        <v>19.3977</v>
+      </c>
+      <c r="V15" t="s">
         <v>5</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>20.100000000000001</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>21.6</v>
       </c>
-      <c r="V15" s="1">
-        <v>41.66</v>
-      </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AB15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0667749999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC15" s="1">
+        <f t="shared" si="11"/>
+        <v>-4.8977000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -7302,7 +7478,7 @@
         <v>1.3000000000000007</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="H16" s="3"/>
@@ -7311,7 +7487,7 @@
         <v>Projeto Usuários</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21.6</v>
       </c>
       <c r="K16" s="1">
@@ -7323,51 +7499,63 @@
         <v>7.3000000000000007</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>6.2050000000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="15"/>
+        <v>13.05</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="15"/>
         <v>11.092500000000001</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="13"/>
-        <v>4.8875000000000002</v>
-      </c>
-      <c r="O16" s="16">
-        <f t="shared" si="14"/>
-        <v>0.85</v>
-      </c>
       <c r="P16" s="1">
-        <f t="shared" si="15"/>
-        <v>20.786750000000001</v>
+        <f t="shared" si="16"/>
+        <v>5.75</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="16"/>
-        <v>33.836750000000002</v>
-      </c>
-      <c r="S16" t="s">
+        <v>4.8875000000000002</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="17"/>
+        <v>4.4136249999999988</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="18"/>
+        <v>17.463625</v>
+      </c>
+      <c r="V16" t="s">
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>21.6</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>22.9</v>
       </c>
-      <c r="V16" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="AA16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AB16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="9"/>
-        <v>3.6632499999999979</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC16" s="1">
+        <f t="shared" si="11"/>
+        <v>-4.4136249999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -7385,7 +7573,7 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45.23</v>
       </c>
       <c r="H17" s="3"/>
@@ -7394,7 +7582,7 @@
         <v>Codificacao Inscrições</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22.900000000000002</v>
       </c>
       <c r="K17" s="1">
@@ -7406,51 +7594,63 @@
         <v>45.23</v>
       </c>
       <c r="M17" s="1">
-        <f>M10+L17*0.326</f>
+        <f>L17*0.326</f>
+        <v>14.74498</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="15"/>
+        <v>64.8</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="15"/>
         <v>31.379480000000001</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="13"/>
-        <v>16.634499999999999</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="14"/>
-        <v>0.3279566023581646</v>
-      </c>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:P23" si="17">(M17-M10)*(1.325-1)</f>
-        <v>4.7921184999999999</v>
+        <f t="shared" si="16"/>
+        <v>19.57</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="16"/>
-        <v>100.7437685</v>
-      </c>
-      <c r="S17" t="s">
+        <v>16.634499999999999</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" ref="S17:S23" si="19">(M17-M10)*(1.325-1)</f>
+        <v>1.7699434999999999</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="18"/>
+        <v>73.147668499999995</v>
+      </c>
+      <c r="V17" t="s">
         <v>26</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>22.9</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <v>31.3</v>
       </c>
-      <c r="V17" s="1">
-        <v>116.17</v>
-      </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="AA17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AB17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="9"/>
-        <v>15.4262315</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1">
+        <f t="shared" si="11"/>
+        <v>-8.3476684999999975</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -7468,7 +7668,7 @@
         <v>12.700000000000003</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>68.680000000000007</v>
       </c>
       <c r="H18" s="3"/>
@@ -7477,7 +7677,7 @@
         <v>Codificacao Turmas</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.3</v>
       </c>
       <c r="K18" s="1">
@@ -7489,51 +7689,63 @@
         <v>68.680000000000007</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" ref="M18:M23" si="18">M11+L18*0.326</f>
+        <f t="shared" ref="M18:M23" si="20">L18*0.326</f>
+        <v>22.389680000000002</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="15"/>
+        <v>98.4</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="15"/>
         <v>47.651679999999999</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="13"/>
-        <v>25.261999999999997</v>
-      </c>
-      <c r="O18" s="16">
-        <f t="shared" si="14"/>
-        <v>0.32788438512592244</v>
-      </c>
       <c r="P18" s="1">
-        <f t="shared" si="17"/>
-        <v>7.2766459999999995</v>
+        <f t="shared" si="16"/>
+        <v>29.72</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="16"/>
-        <v>153.00209599999999</v>
-      </c>
-      <c r="S18" t="s">
+        <v>25.261999999999997</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="19"/>
+        <v>2.6853710000000013</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="18"/>
+        <v>111.108571</v>
+      </c>
+      <c r="V18" t="s">
         <v>22</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>31.3</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>44</v>
       </c>
-      <c r="V18" s="1">
-        <v>176.41</v>
-      </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
+        <v>98.4</v>
+      </c>
+      <c r="AA18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AB18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="1">
-        <f t="shared" si="9"/>
-        <v>23.407904000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC18" s="1">
+        <f t="shared" si="11"/>
+        <v>-12.708570999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -7551,7 +7763,7 @@
         <v>6.1000000000000014</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33.5</v>
       </c>
       <c r="H19" s="3"/>
@@ -7560,7 +7772,7 @@
         <v>Codificacao Disciplinas</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="K19" s="1">
@@ -7572,51 +7784,63 @@
         <v>33.5</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>10.921000000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="15"/>
         <v>23.246000000000002</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" si="13"/>
-        <v>12.324999999999999</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="14"/>
-        <v>0.32785162752065033</v>
-      </c>
       <c r="P19" s="1">
-        <f t="shared" si="17"/>
-        <v>3.5493250000000005</v>
+        <f t="shared" si="16"/>
+        <v>14.5</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="16"/>
-        <v>74.642549999999986</v>
-      </c>
-      <c r="S19" t="s">
+        <v>12.324999999999999</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="19"/>
+        <v>1.3089375000000003</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="18"/>
+        <v>54.206637499999999</v>
+      </c>
+      <c r="V19" t="s">
         <v>18</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>44</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>50.1</v>
       </c>
-      <c r="V19" s="1">
-        <v>86.05</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AB19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="1">
-        <f t="shared" si="9"/>
-        <v>11.407450000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC19" s="1">
+        <f t="shared" si="11"/>
+        <v>-6.2066374999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -7634,7 +7858,7 @@
         <v>7.0999999999999943</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38.53</v>
       </c>
       <c r="H20" s="3"/>
@@ -7643,7 +7867,7 @@
         <v>Codificacao Aluno</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>50.1</v>
       </c>
       <c r="K20" s="1">
@@ -7655,51 +7879,63 @@
         <v>38.53</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>12.560780000000001</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="15"/>
+        <v>55.2</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="15"/>
         <v>26.73028</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="13"/>
-        <v>14.169500000000001</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="14"/>
-        <v>0.32793164339589015</v>
-      </c>
       <c r="P20" s="1">
-        <f t="shared" si="17"/>
-        <v>4.0822534999999993</v>
+        <f t="shared" si="16"/>
+        <v>16.670000000000002</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="16"/>
-        <v>85.820953500000002</v>
-      </c>
-      <c r="S20" t="s">
+        <v>14.169500000000001</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="19"/>
+        <v>1.5076034999999997</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="18"/>
+        <v>62.317178500000011</v>
+      </c>
+      <c r="V20" t="s">
         <v>14</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>50.1</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>57.2</v>
       </c>
-      <c r="V20" s="1">
-        <v>98.96</v>
-      </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="AA20" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AB20" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="1">
-        <f t="shared" si="9"/>
-        <v>13.139046499999992</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC20" s="1">
+        <f t="shared" si="11"/>
+        <v>-7.1171785000000085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -7717,7 +7953,7 @@
         <v>7.1000000000000085</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38.53</v>
       </c>
       <c r="H21" s="3"/>
@@ -7726,7 +7962,7 @@
         <v>Codificacao Áreas</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57.199999999999996</v>
       </c>
       <c r="K21" s="1">
@@ -7738,51 +7974,63 @@
         <v>38.53</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>12.560780000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="15"/>
+        <v>55.2</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="15"/>
         <v>26.73028</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="13"/>
-        <v>14.169500000000001</v>
-      </c>
-      <c r="O21" s="16">
-        <f t="shared" si="14"/>
-        <v>0.32793164339589015</v>
-      </c>
       <c r="P21" s="1">
-        <f t="shared" si="17"/>
-        <v>4.0822534999999993</v>
+        <f t="shared" si="16"/>
+        <v>16.670000000000002</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="16"/>
-        <v>85.820953500000002</v>
-      </c>
-      <c r="S21" t="s">
+        <v>14.169500000000001</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="19"/>
+        <v>1.5076034999999997</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="18"/>
+        <v>62.317178500000011</v>
+      </c>
+      <c r="V21" t="s">
         <v>10</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>57.2</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>64.3</v>
       </c>
-      <c r="V21" s="1">
-        <v>98.96</v>
-      </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="AA21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AB21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="9"/>
-        <v>13.139046499999992</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1">
+        <f t="shared" si="11"/>
+        <v>-7.1171785000000085</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -7800,7 +8048,7 @@
         <v>6.1999999999999886</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33.5</v>
       </c>
       <c r="H22" s="3"/>
@@ -7809,7 +8057,7 @@
         <v>Codificacao Professores</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>64.300000000000011</v>
       </c>
       <c r="K22" s="1">
@@ -7821,51 +8069,63 @@
         <v>33.5</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>10.921000000000001</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="15"/>
         <v>23.246000000000002</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="13"/>
-        <v>12.324999999999999</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="14"/>
-        <v>0.32785162752065033</v>
-      </c>
       <c r="P22" s="1">
-        <f t="shared" si="17"/>
-        <v>3.5493250000000005</v>
+        <f t="shared" si="16"/>
+        <v>14.5</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="16"/>
-        <v>74.642549999999986</v>
-      </c>
-      <c r="S22" t="s">
+        <v>12.324999999999999</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="19"/>
+        <v>1.3089375000000003</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="18"/>
+        <v>54.206637499999999</v>
+      </c>
+      <c r="V22" t="s">
         <v>6</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>64.3</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>70.5</v>
       </c>
-      <c r="V22" s="1">
-        <v>86.05</v>
-      </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA22" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AB22" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="1">
-        <f t="shared" si="9"/>
-        <v>11.407450000000011</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC22" s="1">
+        <f t="shared" si="11"/>
+        <v>-6.2066374999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -7883,7 +8143,7 @@
         <v>5.6000000000000085</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30.150000000000002</v>
       </c>
       <c r="H23" s="3"/>
@@ -7892,7 +8152,7 @@
         <v>Codificacao Usuários</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>70.5</v>
       </c>
       <c r="K23" s="1">
@@ -7904,51 +8164,63 @@
         <v>30.150000000000002</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>9.8289000000000009</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="15"/>
+        <v>43.2</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="15"/>
         <v>20.921400000000002</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" si="13"/>
-        <v>11.092500000000001</v>
-      </c>
-      <c r="O23" s="16">
-        <f t="shared" si="14"/>
-        <v>0.3278240374740482</v>
-      </c>
       <c r="P23" s="1">
-        <f t="shared" si="17"/>
-        <v>3.1943924999999997</v>
+        <f t="shared" si="16"/>
+        <v>13.05</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="16"/>
-        <v>67.181142500000007</v>
-      </c>
-      <c r="S23" t="s">
+        <v>11.092500000000001</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="9"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="19"/>
+        <v>1.1777675000000001</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="18"/>
+        <v>48.791392500000001</v>
+      </c>
+      <c r="V23" t="s">
         <v>2</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>70.5</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>76.099999999999994</v>
       </c>
-      <c r="V23" s="1">
-        <v>77.45</v>
-      </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="AA23" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AB23" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="1">
-        <f t="shared" si="9"/>
-        <v>10.268857499999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC23" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.5913924999999978</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -7974,58 +8246,68 @@
         <v>Testes Inscrições</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>76.100000000000009</v>
       </c>
       <c r="K24" s="1">
-        <f>J24+Q17*0.13/$K$1</f>
-        <v>89.196689905000014</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
+        <f>J24+T17*0.13/$K$1</f>
+        <v>85.609196905000005</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" s="17">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>76.099999999999994</v>
       </c>
-      <c r="U24">
-        <v>91.2</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
+      <c r="X24">
+        <v>84.5</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AB24" s="1">
         <f t="shared" si="3"/>
-        <v>2.0033100949999891</v>
-      </c>
-      <c r="Z24" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-1.1091969050000046</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -8051,58 +8333,68 @@
         <v>Testes Turmas</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="10"/>
-        <v>89.196689905000014</v>
+        <f t="shared" si="12"/>
+        <v>85.609196905000005</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K30" si="19">J25+Q18*0.13/$K$1</f>
-        <v>109.08696238500002</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
+        <f t="shared" ref="K25:K30" si="21">J25+T18*0.13/$K$1</f>
+        <v>100.053311135</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="17">
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
         <v>23</v>
       </c>
-      <c r="T25">
-        <v>91.2</v>
-      </c>
-      <c r="U25">
-        <v>114.1</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
+      <c r="W25">
+        <v>84.5</v>
+      </c>
+      <c r="X25">
+        <v>97.3</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
         <f t="shared" si="2"/>
-        <v>2.0033100949999891</v>
-      </c>
-      <c r="Y25" s="1">
+        <v>-1.1091969050000046</v>
+      </c>
+      <c r="AB25" s="1">
         <f t="shared" si="3"/>
-        <v>5.0130376149999734</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-2.7533111350000041</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -8128,58 +8420,68 @@
         <v>Testes Disciplinas</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="10"/>
-        <v>109.08696238500002</v>
+        <f t="shared" si="12"/>
+        <v>100.053311135</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="19"/>
-        <v>118.79049388500002</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
+        <f t="shared" si="21"/>
+        <v>107.10017401</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="17">
+        <v>0</v>
+      </c>
+      <c r="T26" s="17">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
         <v>19</v>
       </c>
-      <c r="T26">
-        <v>114.1</v>
-      </c>
-      <c r="U26">
-        <v>125.3</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
+      <c r="W26">
+        <v>97.3</v>
+      </c>
+      <c r="X26">
+        <v>103.5</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
         <f t="shared" si="2"/>
-        <v>5.0130376149999734</v>
-      </c>
-      <c r="Y26" s="1">
+        <v>-2.7533111350000041</v>
+      </c>
+      <c r="AB26" s="1">
         <f t="shared" si="3"/>
-        <v>6.5095061149999793</v>
-      </c>
-      <c r="Z26" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-3.6001740100000035</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -8205,58 +8507,68 @@
         <v>Testes Aluno</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="10"/>
-        <v>118.79049388500002</v>
+        <f t="shared" si="12"/>
+        <v>107.10017401</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="19"/>
-        <v>129.94721784000001</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
+        <f t="shared" si="21"/>
+        <v>115.201407215</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" s="17">
+        <v>0</v>
+      </c>
+      <c r="T27" s="17">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
         <v>15</v>
       </c>
-      <c r="T27">
-        <v>125.3</v>
-      </c>
-      <c r="U27">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1">
+      <c r="W27">
+        <v>103.5</v>
+      </c>
+      <c r="X27">
+        <v>110.7</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <f t="shared" si="2"/>
-        <v>6.5095061149999793</v>
-      </c>
-      <c r="Y27" s="1">
+        <v>-3.6001740100000035</v>
+      </c>
+      <c r="AB27" s="1">
         <f t="shared" si="3"/>
-        <v>8.2527821599999811</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-4.5014072150000004</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -8282,58 +8594,68 @@
         <v>Testes Áreas</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="10"/>
-        <v>129.94721784000001</v>
+        <f t="shared" si="12"/>
+        <v>115.201407215</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="19"/>
-        <v>141.103941795</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
+        <f t="shared" si="21"/>
+        <v>123.30264042</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28" s="17">
+        <v>0</v>
+      </c>
+      <c r="T28" s="17">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
         <v>11</v>
       </c>
-      <c r="T28">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="U28">
-        <v>151</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="W28">
+        <v>110.7</v>
+      </c>
+      <c r="X28">
+        <v>117.9</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <f t="shared" si="2"/>
-        <v>8.2527821599999811</v>
-      </c>
-      <c r="Y28" s="1">
+        <v>-4.5014072150000004</v>
+      </c>
+      <c r="AB28" s="1">
         <f t="shared" si="3"/>
-        <v>9.8960582050000028</v>
-      </c>
-      <c r="Z28" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-5.4026404199999973</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -8359,58 +8681,68 @@
         <v>Testes Professores</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="10"/>
-        <v>141.103941795</v>
+        <f t="shared" si="12"/>
+        <v>123.30264042</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="19"/>
-        <v>150.80747329499999</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
+        <f t="shared" si="21"/>
+        <v>130.34950329500001</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
         <v>7</v>
       </c>
-      <c r="T29">
-        <v>151</v>
-      </c>
-      <c r="U29">
-        <v>162.19999999999999</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1">
+      <c r="W29">
+        <v>117.9</v>
+      </c>
+      <c r="X29">
+        <v>124.1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <f t="shared" si="2"/>
-        <v>9.8960582050000028</v>
-      </c>
-      <c r="Y29" s="1">
+        <v>-5.4026404199999973</v>
+      </c>
+      <c r="AB29" s="1">
         <f t="shared" si="3"/>
-        <v>11.392526704999995</v>
-      </c>
-      <c r="Z29" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-6.2495032950000109</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -8436,61 +8768,71 @@
         <v>Testes Usuários</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="10"/>
-        <v>150.80747329499999</v>
+        <f t="shared" si="12"/>
+        <v>130.34950329500001</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="19"/>
-        <v>159.54102182</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
+        <f t="shared" si="21"/>
+        <v>136.69238432</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>n/a</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="17">
+        <v>0</v>
+      </c>
+      <c r="T30" s="17">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
         <v>3</v>
       </c>
-      <c r="T30">
-        <v>162.19999999999999</v>
-      </c>
-      <c r="U30">
-        <v>172.3</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1">
+      <c r="W30">
+        <v>124.1</v>
+      </c>
+      <c r="X30">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
         <f t="shared" si="2"/>
-        <v>11.392526704999995</v>
-      </c>
-      <c r="Y30" s="1">
+        <v>-6.2495032950000109</v>
+      </c>
+      <c r="AB30" s="1">
         <f t="shared" si="3"/>
-        <v>12.758978180000014</v>
-      </c>
-      <c r="Z30" s="1">
-        <f t="shared" si="9"/>
+        <v>-6.8923843199999908</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="S2:V30">
-    <sortState ref="S3:V30">
-      <sortCondition ref="T2:T30"/>
+  <autoFilter ref="V2:Y30">
+    <sortState ref="V3:Y30">
+      <sortCondition ref="W2:W30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
